--- a/lib/us_core_test_kit/requirements/hl7.fhir.us.core_7.0.0_reqs.xlsx
+++ b/lib/us_core_test_kit/requirements/hl7.fhir.us.core_7.0.0_reqs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/knaden/Documents/Inferno/source/us-core-test-kit/lib/us_core_test_kit/requirements/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edeyoung/Documents/inferno/us-core-test-kit/lib/us_core_test_kit/requirements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A134E3-941E-7845-A343-6D07F83D6EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E9EDD5-F921-5445-8E9A-D4C802F2486A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20180" activeTab="2" xr2:uid="{D251129A-65BB-5042-909C-749E11B8C0B0}"/>
+    <workbookView xWindow="20" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{D251129A-65BB-5042-909C-749E11B8C0B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="9" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2860" uniqueCount="998">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2858" uniqueCount="1003">
   <si>
     <r>
       <rPr>
@@ -3838,37 +3838,10 @@
     <t>https://hl7.org/fhir/us/core/STU7/StructureDefinition-us-core-patient.html#mandatory-and-must-support-data-elements, https://hl7.org/fhir/us/core/STU7/StructureDefinition-us-core-race.html#profile-specific-implementation-guidance</t>
   </si>
   <si>
-    <t>[Organizations participating in the ONC Health IT certrification program,] must support at least one category code from OMB Race [category for the [US Core Race Extension] (https://hl7.org/fhir/us/core/STU7/StructureDefinition-us-core-race.html)]</t>
-  </si>
-  <si>
-    <t>For organizations participating in ONC certification, when using the US Core Race Extension</t>
-  </si>
-  <si>
     <t>https://hl7.org/fhir/us/core/STU7/StructureDefinition-us-core-patient.html#mandatory-and-must-support-data-elements, https://hl7.org/fhir/us/core/STU7/StructureDefinition-us-core-ethnicity.html#profile-specific-implementation-guidance</t>
   </si>
   <si>
-    <t>[Organizations participating in the ONC Health IT certrification program,] must support at least one category code from OMB … Ethnicity [category for the [US Core Ethnicity Extension] (https://hl7.org/fhir/us/core/STU7/StructureDefinition-us-core-ethnicity.html)]</t>
-  </si>
-  <si>
-    <t>For organizations participating in ONC certification, When using the US Core Ethnicity Extension</t>
-  </si>
-  <si>
-    <t>[Organizations participating in the ONC Health IT certrification program,] MAY include additional detailed codes from CDC Race … codes [when using the [US Core Race Extension] (https://hl7.org/fhir/us/core/STU7/StructureDefinition-us-core-race.html)]</t>
-  </si>
-  <si>
-    <t>For organizations participating in ONC certification, When using the US Core Race Extension</t>
-  </si>
-  <si>
-    <t>[Organizations participating in the ONC Health IT certrification program,] SHALL include a text description [of category codes when using the [US Core Ethnicity Extension] (https://hl7.org/fhir/us/core/STU7/StructureDefinition-us-core-ethnicity.html)]</t>
-  </si>
-  <si>
     <t>https://hl7.org/fhir/us/core/STU7/StructureDefinition-us-core-patient.html#mandatory-and-must-support-data-elements</t>
-  </si>
-  <si>
-    <t>[For Organizations participating in the ONC Health IT certrification program,] Although Patient.deceased[x] is marked as additional USCDI, certifying systems are not required to support both [boolean and dateTime data types], but SHALL support [at] least Patient.deceasedDateTime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For organizations participating in ONC certification, </t>
   </si>
   <si>
     <t>Proposal for a potentially better way to state this requirement: Certified system SHALL support Patient.deceasedDateTime and MAY support Patient.deceasedBoolean. Non certified system SHALL support at least one date type under Patient.deceased[x]</t>
@@ -4581,6 +4554,48 @@
   </si>
   <si>
     <t>OUT OF SCOPE</t>
+  </si>
+  <si>
+    <t>Marked DEPRECATED because this is an example.</t>
+  </si>
+  <si>
+    <t>Duplicate of 254</t>
+  </si>
+  <si>
+    <t>Duplicate of requirement 260</t>
+  </si>
+  <si>
+    <t>Although Patient.deceased[x] is marked as additional USCDI, certifying systems are not required to support both [boolean and dateTime data types], but SHALL support [at] least Patient.deceasedDateTime</t>
+  </si>
+  <si>
+    <t>The Complex [Extension] for Race ... allow[s] for one or more codes of which must support at least one category code from OMB Race [category for the [US Core Race Extension] (https://hl7.org/fhir/us/core/STU7/StructureDefinition-us-core-race.html)]</t>
+  </si>
+  <si>
+    <t>The Complex [Extension] for Race ... allow[s] for one or more codes of which MAY include additional detailed codes from CDC Race … codes [when using the [US Core Race Extension] (https://hl7.org/fhir/us/core/STU7/StructureDefinition-us-core-race.html)]</t>
+  </si>
+  <si>
+    <t>The Complex [Extension] for Race ... allow[s] for one or more codes of which SHALL include a text description [of category codes when using the [US Core Race Extension] (https://hl7.org/fhir/us/core/STU7/StructureDefinition-us-core-race.html)]</t>
+  </si>
+  <si>
+    <t>The Complex [Extension] for ... Ethnicity allow[s] for one or more codes of which must support at least one category code from OMB … Ethnicity [category for the [US Core Ethnicity Extension] (https://hl7.org/fhir/us/core/STU7/StructureDefinition-us-core-ethnicity.html)]</t>
+  </si>
+  <si>
+    <t>The Complex [Extension] for ... Ethnicity allow[s] for one or more codes of which MAY include additional detailed codes from CDC Race … codes [when using the [US Core Race Extension] (https://hl7.org/fhir/us/core/STU7/StructureDefinition-us-core-race.html)]</t>
+  </si>
+  <si>
+    <t>The Complex [Extension] for ... Ethnicity allow[s] for one or more codes of which SHALL include a text description [of category codes when using the [US Core Ethnicity Extension] (https://hl7.org/fhir/us/core/STU7/StructureDefinition-us-core-ethnicity.html)]</t>
+  </si>
+  <si>
+    <t>when using the US Core Race Extension</t>
+  </si>
+  <si>
+    <t>When using the US Core Ethnicity Extension</t>
+  </si>
+  <si>
+    <t>When using the US Core Race Extension</t>
+  </si>
+  <si>
+    <t>certifying systems</t>
   </si>
 </sst>
 </file>
@@ -5580,11 +5595,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0272D98A-080C-3945-A7E0-CB54FB3A65A9}">
   <dimension ref="A1:V585"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="Q4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="8" ySplit="1" topLeftCell="J460" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomRight" activeCell="H460" sqref="H460:H466"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9198,7 +9213,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="C88" s="8" t="s">
         <v>182</v>
@@ -9218,7 +9233,7 @@
       </c>
       <c r="N88" s="9" t="str" cm="1">
         <f t="array" ref="N88">SECTION_NAME(B88)</f>
-        <v>additional-uscdi-requirements</v>
+        <v>defined-pattern-elements</v>
       </c>
       <c r="O88" s="10" t="str">
         <f t="shared" si="4"/>
@@ -9243,7 +9258,7 @@
         <v>185</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="E89" s="7" t="s">
         <v>33</v>
@@ -9270,6 +9285,9 @@
         <f t="shared" si="3"/>
         <v>Server</v>
       </c>
+      <c r="V89" s="12" t="s">
+        <v>989</v>
+      </c>
     </row>
     <row r="90" spans="1:22" ht="136" x14ac:dyDescent="0.2">
       <c r="A90" s="7">
@@ -9282,7 +9300,7 @@
         <v>187</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="E90" s="7" t="s">
         <v>76</v>
@@ -9308,6 +9326,9 @@
       <c r="P90" s="10" t="str">
         <f t="shared" si="3"/>
         <v>Client</v>
+      </c>
+      <c r="V90" s="12" t="s">
+        <v>989</v>
       </c>
     </row>
     <row r="91" spans="1:22" ht="68" x14ac:dyDescent="0.2">
@@ -15163,7 +15184,7 @@
         <v>support-requirements</v>
       </c>
     </row>
-    <row r="241" spans="1:17" ht="170" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:22" ht="170" x14ac:dyDescent="0.2">
       <c r="A241" s="7">
         <v>240</v>
       </c>
@@ -15194,7 +15215,7 @@
         <v>support-requirements</v>
       </c>
     </row>
-    <row r="242" spans="1:17" ht="170" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:22" ht="170" x14ac:dyDescent="0.2">
       <c r="A242" s="7">
         <v>241</v>
       </c>
@@ -15225,7 +15246,7 @@
         <v>support-requirements</v>
       </c>
     </row>
-    <row r="243" spans="1:17" ht="170" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:22" ht="170" x14ac:dyDescent="0.2">
       <c r="A243" s="7">
         <v>242</v>
       </c>
@@ -15256,7 +15277,7 @@
         <v>discovering-server-read-and-write-formats</v>
       </c>
     </row>
-    <row r="244" spans="1:17" ht="170" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:22" ht="170" x14ac:dyDescent="0.2">
       <c r="A244" s="7">
         <v>243</v>
       </c>
@@ -15287,7 +15308,7 @@
         <v>discovering-server-read-and-write-formats</v>
       </c>
     </row>
-    <row r="245" spans="1:17" ht="187" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:22" ht="187" x14ac:dyDescent="0.2">
       <c r="A245" s="7">
         <v>244</v>
       </c>
@@ -15318,7 +15339,7 @@
         <v>discovering-server-read-and-write-formats</v>
       </c>
     </row>
-    <row r="246" spans="1:17" ht="187" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:22" ht="187" x14ac:dyDescent="0.2">
       <c r="A246" s="7">
         <v>245</v>
       </c>
@@ -15349,7 +15370,7 @@
         <v>discovering-server-read-and-write-formats</v>
       </c>
     </row>
-    <row r="247" spans="1:17" ht="102" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:22" ht="102" x14ac:dyDescent="0.2">
       <c r="A247" s="7">
         <v>246</v>
       </c>
@@ -15388,7 +15409,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="248" spans="1:17" ht="119" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:22" ht="119" x14ac:dyDescent="0.2">
       <c r="A248" s="7">
         <v>247</v>
       </c>
@@ -15430,7 +15451,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="249" spans="1:17" ht="85" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:22" ht="85" x14ac:dyDescent="0.2">
       <c r="A249" s="7">
         <v>248</v>
       </c>
@@ -15469,7 +15490,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="250" spans="1:17" ht="102" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:22" ht="102" x14ac:dyDescent="0.2">
       <c r="A250" s="7">
         <v>249</v>
       </c>
@@ -15511,7 +15532,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="251" spans="1:17" ht="68" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:22" ht="68" x14ac:dyDescent="0.2">
       <c r="A251" s="7">
         <v>250</v>
       </c>
@@ -15553,7 +15574,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="252" spans="1:17" ht="102" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:22" ht="102" x14ac:dyDescent="0.2">
       <c r="A252" s="7">
         <v>251</v>
       </c>
@@ -15595,7 +15616,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="253" spans="1:17" ht="204" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:22" ht="204" x14ac:dyDescent="0.2">
       <c r="A253" s="7">
         <v>252</v>
       </c>
@@ -15634,7 +15655,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="254" spans="1:17" ht="170" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:22" ht="170" x14ac:dyDescent="0.2">
       <c r="A254" s="7">
         <v>253</v>
       </c>
@@ -15673,7 +15694,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="255" spans="1:17" ht="170" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:22" ht="170" x14ac:dyDescent="0.2">
       <c r="A255" s="7">
         <v>254</v>
       </c>
@@ -15712,7 +15733,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="256" spans="1:17" ht="170" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:22" ht="170" x14ac:dyDescent="0.2">
       <c r="A256" s="7">
         <v>255</v>
       </c>
@@ -15723,7 +15744,7 @@
         <v>488</v>
       </c>
       <c r="D256" s="7" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="E256" s="7" t="s">
         <v>33</v>
@@ -15750,6 +15771,9 @@
       <c r="Q256" s="10" t="s">
         <v>489</v>
       </c>
+      <c r="V256" s="12" t="s">
+        <v>990</v>
+      </c>
     </row>
     <row r="257" spans="1:22" ht="238" x14ac:dyDescent="0.2">
       <c r="A257" s="7">
@@ -15921,7 +15945,7 @@
         <v>33</v>
       </c>
       <c r="G261" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M261" s="9" t="str" cm="1">
         <f t="array" ref="M261">PAGE_NAME(B261)</f>
@@ -15954,7 +15978,7 @@
         <v>496</v>
       </c>
       <c r="D262" s="7" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="E262" s="7" t="s">
         <v>33</v>
@@ -15981,6 +16005,9 @@
       <c r="Q262" s="10" t="s">
         <v>497</v>
       </c>
+      <c r="V262" s="12" t="s">
+        <v>991</v>
+      </c>
     </row>
     <row r="263" spans="1:22" ht="187" x14ac:dyDescent="0.2">
       <c r="A263" s="7">
@@ -23011,7 +23038,7 @@
         <v/>
       </c>
     </row>
-    <row r="449" spans="1:22" ht="34" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A449" s="7">
         <v>448</v>
       </c>
@@ -23047,7 +23074,7 @@
         <v/>
       </c>
     </row>
-    <row r="450" spans="1:22" ht="68" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A450" s="7">
         <v>449</v>
       </c>
@@ -23086,7 +23113,7 @@
         <v/>
       </c>
     </row>
-    <row r="451" spans="1:22" ht="85" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:16" ht="85" x14ac:dyDescent="0.2">
       <c r="A451" s="7">
         <v>450</v>
       </c>
@@ -23125,7 +23152,7 @@
         <v/>
       </c>
     </row>
-    <row r="452" spans="1:22" ht="102" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:16" ht="102" x14ac:dyDescent="0.2">
       <c r="A452" s="7">
         <v>451</v>
       </c>
@@ -23164,7 +23191,7 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="453" spans="1:22" ht="68" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A453" s="7">
         <v>452</v>
       </c>
@@ -23203,7 +23230,7 @@
         <v/>
       </c>
     </row>
-    <row r="454" spans="1:22" ht="68" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A454" s="7">
         <v>453</v>
       </c>
@@ -23242,7 +23269,7 @@
         <v/>
       </c>
     </row>
-    <row r="455" spans="1:22" ht="136" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:16" ht="136" x14ac:dyDescent="0.2">
       <c r="A455" s="7">
         <v>454</v>
       </c>
@@ -23281,7 +23308,7 @@
         <v/>
       </c>
     </row>
-    <row r="456" spans="1:22" ht="34" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A456" s="7">
         <v>455</v>
       </c>
@@ -23317,7 +23344,7 @@
         <v/>
       </c>
     </row>
-    <row r="457" spans="1:22" ht="51" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A457" s="7">
         <v>456</v>
       </c>
@@ -23353,7 +23380,7 @@
         <v/>
       </c>
     </row>
-    <row r="458" spans="1:22" ht="34" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A458" s="7">
         <v>457</v>
       </c>
@@ -23389,7 +23416,7 @@
         <v/>
       </c>
     </row>
-    <row r="459" spans="1:22" ht="102" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:16" ht="102" x14ac:dyDescent="0.2">
       <c r="A459" s="7">
         <v>458</v>
       </c>
@@ -23425,7 +23452,7 @@
         <v/>
       </c>
     </row>
-    <row r="460" spans="1:22" ht="85" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:16" ht="85" x14ac:dyDescent="0.2">
       <c r="A460" s="7">
         <v>459</v>
       </c>
@@ -23433,7 +23460,7 @@
         <v>819</v>
       </c>
       <c r="C460" s="8" t="s">
-        <v>820</v>
+        <v>993</v>
       </c>
       <c r="D460" s="7" t="s">
         <v>32</v>
@@ -23445,7 +23472,7 @@
         <v>1</v>
       </c>
       <c r="H460" s="12" t="s">
-        <v>821</v>
+        <v>999</v>
       </c>
       <c r="M460" s="9" t="str" cm="1">
         <f t="array" ref="M460">PAGE_NAME(B460)</f>
@@ -23463,19 +23490,16 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="V460" s="12" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="461" spans="1:22" ht="85" x14ac:dyDescent="0.2">
+    </row>
+    <row r="461" spans="1:16" ht="85" x14ac:dyDescent="0.2">
       <c r="A461" s="7">
         <v>460</v>
       </c>
       <c r="B461" s="52" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="C461" s="8" t="s">
-        <v>823</v>
+        <v>996</v>
       </c>
       <c r="D461" s="7" t="s">
         <v>32</v>
@@ -23487,7 +23511,7 @@
         <v>1</v>
       </c>
       <c r="H461" s="12" t="s">
-        <v>824</v>
+        <v>1000</v>
       </c>
       <c r="M461" s="9" t="str" cm="1">
         <f t="array" ref="M461">PAGE_NAME(B461)</f>
@@ -23505,11 +23529,8 @@
         <f>IF(ISNUMBER( SEARCH("server",#REF!)), "Server", IF(ISNUMBER( SEARCH("Server",#REF!)), "Server", IF(ISNUMBER( SEARCH("client",#REF!)), "Client", IF(ISNUMBER( SEARCH("Client",#REF!)), "Client", IF(ISNUMBER( SEARCH("US Core Responder",#REF!)), "Server", IF(ISNUMBER( SEARCH("US Core Requestor",#REF!)), "Client", ""))))))</f>
         <v/>
       </c>
-      <c r="V461" s="12" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="462" spans="1:22" ht="85" x14ac:dyDescent="0.2">
+    </row>
+    <row r="462" spans="1:16" ht="85" x14ac:dyDescent="0.2">
       <c r="A462" s="7">
         <v>461</v>
       </c>
@@ -23517,7 +23538,7 @@
         <v>819</v>
       </c>
       <c r="C462" s="8" t="s">
-        <v>825</v>
+        <v>994</v>
       </c>
       <c r="D462" s="7" t="s">
         <v>40</v>
@@ -23529,7 +23550,7 @@
         <v>1</v>
       </c>
       <c r="H462" s="12" t="s">
-        <v>826</v>
+        <v>1001</v>
       </c>
       <c r="M462" s="9" t="str" cm="1">
         <f t="array" ref="M462">PAGE_NAME(B462)</f>
@@ -23547,19 +23568,16 @@
         <f>IF(ISNUMBER(SEARCH("server", C461)), "Server", IF(ISNUMBER(SEARCH("Server", C461)), "Server", IF(ISNUMBER(SEARCH("client", C461)), "Client", IF(ISNUMBER(SEARCH("Client", C461)), "Client", IF(ISNUMBER(SEARCH("US Core Responder", C461)), "Server", IF(ISNUMBER(SEARCH("US Core Requestor", C461)), "Client", ""))))))</f>
         <v/>
       </c>
-      <c r="V462" s="12" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="463" spans="1:22" ht="85" x14ac:dyDescent="0.2">
+    </row>
+    <row r="463" spans="1:16" ht="85" x14ac:dyDescent="0.2">
       <c r="A463" s="7">
         <v>462</v>
       </c>
       <c r="B463" s="52" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="C463" s="8" t="s">
-        <v>827</v>
+        <v>995</v>
       </c>
       <c r="D463" s="7" t="s">
         <v>40</v>
@@ -23571,7 +23589,7 @@
         <v>1</v>
       </c>
       <c r="H463" s="12" t="s">
-        <v>824</v>
+        <v>1000</v>
       </c>
       <c r="M463" s="9" t="str" cm="1">
         <f t="array" ref="M463">PAGE_NAME(B463)</f>
@@ -23589,11 +23607,8 @@
         <f t="shared" ref="P463:P494" si="20">IF(ISNUMBER(SEARCH("server", C463)), "Server", IF(ISNUMBER(SEARCH("Server", C463)), "Server", IF(ISNUMBER(SEARCH("client", C463)), "Client", IF(ISNUMBER(SEARCH("Client", C463)), "Client", IF(ISNUMBER(SEARCH("US Core Responder", C463)), "Server", IF(ISNUMBER(SEARCH("US Core Requestor", C463)), "Client", ""))))))</f>
         <v/>
       </c>
-      <c r="V463" s="12" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="464" spans="1:22" ht="85" x14ac:dyDescent="0.2">
+    </row>
+    <row r="464" spans="1:16" ht="85" x14ac:dyDescent="0.2">
       <c r="A464" s="7">
         <v>463</v>
       </c>
@@ -23601,7 +23616,7 @@
         <v>819</v>
       </c>
       <c r="C464" s="8" t="s">
-        <v>825</v>
+        <v>997</v>
       </c>
       <c r="D464" s="7" t="s">
         <v>32</v>
@@ -23613,7 +23628,7 @@
         <v>1</v>
       </c>
       <c r="H464" s="12" t="s">
-        <v>826</v>
+        <v>1001</v>
       </c>
       <c r="M464" s="9" t="str" cm="1">
         <f t="array" ref="M464">PAGE_NAME(B464)</f>
@@ -23631,19 +23646,16 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="V464" s="12" t="s">
-        <v>700</v>
-      </c>
     </row>
     <row r="465" spans="1:22" ht="85" x14ac:dyDescent="0.2">
       <c r="A465" s="7">
         <v>464</v>
       </c>
       <c r="B465" s="52" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="C465" s="8" t="s">
-        <v>827</v>
+        <v>998</v>
       </c>
       <c r="D465" s="7" t="s">
         <v>32</v>
@@ -23655,7 +23667,7 @@
         <v>1</v>
       </c>
       <c r="H465" s="12" t="s">
-        <v>824</v>
+        <v>1000</v>
       </c>
       <c r="M465" s="9" t="str" cm="1">
         <f t="array" ref="M465">PAGE_NAME(B465)</f>
@@ -23673,19 +23685,16 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="V465" s="12" t="s">
-        <v>700</v>
-      </c>
     </row>
     <row r="466" spans="1:22" ht="102" x14ac:dyDescent="0.2">
       <c r="A466" s="7">
         <v>465</v>
       </c>
       <c r="B466" s="52" t="s">
-        <v>828</v>
+        <v>821</v>
       </c>
       <c r="C466" s="8" t="s">
-        <v>829</v>
+        <v>992</v>
       </c>
       <c r="D466" s="7" t="s">
         <v>32</v>
@@ -23694,7 +23703,7 @@
         <v>33</v>
       </c>
       <c r="H466" s="12" t="s">
-        <v>830</v>
+        <v>1002</v>
       </c>
       <c r="M466" s="9" t="str" cm="1">
         <f t="array" ref="M466">PAGE_NAME(B466)</f>
@@ -23713,7 +23722,7 @@
         <v/>
       </c>
       <c r="U466" s="12" t="s">
-        <v>831</v>
+        <v>822</v>
       </c>
       <c r="V466" s="12" t="s">
         <v>700</v>
@@ -23724,10 +23733,10 @@
         <v>466</v>
       </c>
       <c r="B467" s="52" t="s">
-        <v>828</v>
+        <v>821</v>
       </c>
       <c r="C467" s="8" t="s">
-        <v>832</v>
+        <v>823</v>
       </c>
       <c r="D467" s="7" t="s">
         <v>36</v>
@@ -23739,7 +23748,7 @@
         <v>1</v>
       </c>
       <c r="H467" s="12" t="s">
-        <v>833</v>
+        <v>824</v>
       </c>
       <c r="O467" s="10" t="str">
         <f t="shared" si="19"/>
@@ -23755,10 +23764,10 @@
         <v>467</v>
       </c>
       <c r="B468" s="52" t="s">
-        <v>828</v>
+        <v>821</v>
       </c>
       <c r="C468" s="8" t="s">
-        <v>834</v>
+        <v>825</v>
       </c>
       <c r="D468" s="7" t="s">
         <v>36</v>
@@ -23770,7 +23779,7 @@
         <v>1</v>
       </c>
       <c r="H468" s="12" t="s">
-        <v>835</v>
+        <v>826</v>
       </c>
       <c r="M468" s="9" t="str" cm="1">
         <f t="array" ref="M468">PAGE_NAME(B468)</f>
@@ -23794,10 +23803,10 @@
         <v>468</v>
       </c>
       <c r="B469" s="52" t="s">
-        <v>828</v>
+        <v>821</v>
       </c>
       <c r="C469" s="8" t="s">
-        <v>836</v>
+        <v>827</v>
       </c>
       <c r="D469" s="7" t="s">
         <v>40</v>
@@ -23830,10 +23839,10 @@
         <v>469</v>
       </c>
       <c r="B470" s="52" t="s">
+        <v>821</v>
+      </c>
+      <c r="C470" s="8" t="s">
         <v>828</v>
-      </c>
-      <c r="C470" s="8" t="s">
-        <v>837</v>
       </c>
       <c r="D470" s="7" t="s">
         <v>32</v>
@@ -23861,7 +23870,7 @@
         <v/>
       </c>
       <c r="V470" s="12" t="s">
-        <v>838</v>
+        <v>829</v>
       </c>
     </row>
     <row r="471" spans="1:22" ht="136" x14ac:dyDescent="0.2">
@@ -23869,10 +23878,10 @@
         <v>470</v>
       </c>
       <c r="B471" s="52" t="s">
-        <v>828</v>
+        <v>821</v>
       </c>
       <c r="C471" s="8" t="s">
-        <v>839</v>
+        <v>830</v>
       </c>
       <c r="D471" s="7" t="s">
         <v>36</v>
@@ -23905,10 +23914,10 @@
         <v>471</v>
       </c>
       <c r="B472" s="52" t="s">
-        <v>828</v>
+        <v>821</v>
       </c>
       <c r="C472" s="8" t="s">
-        <v>840</v>
+        <v>831</v>
       </c>
       <c r="D472" s="7" t="s">
         <v>40</v>
@@ -23920,7 +23929,7 @@
         <v>1</v>
       </c>
       <c r="H472" s="12" t="s">
-        <v>841</v>
+        <v>832</v>
       </c>
       <c r="M472" s="9" t="str" cm="1">
         <f t="array" ref="M472">PAGE_NAME(B472)</f>
@@ -23947,10 +23956,10 @@
         <v>472</v>
       </c>
       <c r="B473" s="52" t="s">
-        <v>828</v>
+        <v>821</v>
       </c>
       <c r="C473" s="8" t="s">
-        <v>842</v>
+        <v>833</v>
       </c>
       <c r="D473" s="7" t="s">
         <v>101</v>
@@ -23983,10 +23992,10 @@
         <v>473</v>
       </c>
       <c r="B474" s="52" t="s">
-        <v>843</v>
+        <v>834</v>
       </c>
       <c r="C474" s="8" t="s">
-        <v>844</v>
+        <v>835</v>
       </c>
       <c r="D474" s="7" t="s">
         <v>32</v>
@@ -23998,7 +24007,7 @@
         <v>1</v>
       </c>
       <c r="H474" s="12" t="s">
-        <v>845</v>
+        <v>836</v>
       </c>
       <c r="M474" s="9" t="str" cm="1">
         <f t="array" ref="M474">PAGE_NAME(B474)</f>
@@ -24022,10 +24031,10 @@
         <v>474</v>
       </c>
       <c r="B475" s="52" t="s">
-        <v>843</v>
+        <v>834</v>
       </c>
       <c r="C475" s="8" t="s">
-        <v>846</v>
+        <v>837</v>
       </c>
       <c r="D475" s="7" t="s">
         <v>40</v>
@@ -24037,7 +24046,7 @@
         <v>1</v>
       </c>
       <c r="H475" s="12" t="s">
-        <v>847</v>
+        <v>838</v>
       </c>
       <c r="M475" s="9" t="str" cm="1">
         <f t="array" ref="M475">PAGE_NAME(B475)</f>
@@ -24061,10 +24070,10 @@
         <v>475</v>
       </c>
       <c r="B476" s="52" t="s">
-        <v>843</v>
+        <v>834</v>
       </c>
       <c r="C476" s="8" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="D476" s="7" t="s">
         <v>32</v>
@@ -24076,7 +24085,7 @@
         <v>1</v>
       </c>
       <c r="H476" s="12" t="s">
-        <v>849</v>
+        <v>840</v>
       </c>
       <c r="M476" s="9" t="str" cm="1">
         <f t="array" ref="M476">PAGE_NAME(B476)</f>
@@ -24100,10 +24109,10 @@
         <v>476</v>
       </c>
       <c r="B477" s="52" t="s">
-        <v>843</v>
+        <v>834</v>
       </c>
       <c r="C477" s="8" t="s">
-        <v>850</v>
+        <v>841</v>
       </c>
       <c r="D477" s="7" t="s">
         <v>32</v>
@@ -24133,10 +24142,10 @@
         <v>477</v>
       </c>
       <c r="B478" s="52" t="s">
-        <v>843</v>
+        <v>834</v>
       </c>
       <c r="C478" s="8" t="s">
-        <v>851</v>
+        <v>842</v>
       </c>
       <c r="D478" s="7" t="s">
         <v>36</v>
@@ -24169,10 +24178,10 @@
         <v>478</v>
       </c>
       <c r="B479" s="52" t="s">
+        <v>834</v>
+      </c>
+      <c r="C479" s="8" t="s">
         <v>843</v>
-      </c>
-      <c r="C479" s="8" t="s">
-        <v>852</v>
       </c>
       <c r="D479" s="7" t="s">
         <v>36</v>
@@ -24205,10 +24214,10 @@
         <v>479</v>
       </c>
       <c r="B480" s="52" t="s">
-        <v>853</v>
+        <v>844</v>
       </c>
       <c r="C480" s="8" t="s">
-        <v>854</v>
+        <v>845</v>
       </c>
       <c r="D480" s="7" t="s">
         <v>40</v>
@@ -24241,10 +24250,10 @@
         <v>480</v>
       </c>
       <c r="B481" s="52" t="s">
-        <v>853</v>
+        <v>844</v>
       </c>
       <c r="C481" s="8" t="s">
-        <v>855</v>
+        <v>846</v>
       </c>
       <c r="D481" s="7" t="s">
         <v>36</v>
@@ -24256,7 +24265,7 @@
         <v>1</v>
       </c>
       <c r="H481" s="12" t="s">
-        <v>856</v>
+        <v>847</v>
       </c>
       <c r="M481" s="9" t="str" cm="1">
         <f t="array" ref="M481">PAGE_NAME(B481)</f>
@@ -24280,10 +24289,10 @@
         <v>481</v>
       </c>
       <c r="B482" s="52" t="s">
-        <v>853</v>
+        <v>844</v>
       </c>
       <c r="C482" s="8" t="s">
-        <v>857</v>
+        <v>848</v>
       </c>
       <c r="D482" s="7" t="s">
         <v>36</v>
@@ -24316,10 +24325,10 @@
         <v>482</v>
       </c>
       <c r="B483" s="52" t="s">
-        <v>853</v>
+        <v>844</v>
       </c>
       <c r="C483" s="8" t="s">
-        <v>858</v>
+        <v>849</v>
       </c>
       <c r="D483" s="7" t="s">
         <v>32</v>
@@ -24331,7 +24340,7 @@
         <v>1</v>
       </c>
       <c r="H483" s="12" t="s">
-        <v>859</v>
+        <v>850</v>
       </c>
       <c r="M483" s="9" t="str" cm="1">
         <f t="array" ref="M483">PAGE_NAME(B483)</f>
@@ -24358,10 +24367,10 @@
         <v>483</v>
       </c>
       <c r="B484" s="52" t="s">
-        <v>853</v>
+        <v>844</v>
       </c>
       <c r="C484" s="8" t="s">
-        <v>860</v>
+        <v>851</v>
       </c>
       <c r="D484" s="7" t="s">
         <v>32</v>
@@ -24373,7 +24382,7 @@
         <v>1</v>
       </c>
       <c r="H484" s="12" t="s">
-        <v>859</v>
+        <v>850</v>
       </c>
       <c r="M484" s="9" t="str" cm="1">
         <f t="array" ref="M484">PAGE_NAME(B484)</f>
@@ -24400,10 +24409,10 @@
         <v>484</v>
       </c>
       <c r="B485" s="52" t="s">
-        <v>853</v>
+        <v>844</v>
       </c>
       <c r="C485" s="8" t="s">
-        <v>861</v>
+        <v>852</v>
       </c>
       <c r="D485" s="7" t="s">
         <v>32</v>
@@ -24415,7 +24424,7 @@
         <v>1</v>
       </c>
       <c r="H485" s="12" t="s">
-        <v>862</v>
+        <v>853</v>
       </c>
       <c r="M485" s="9" t="str" cm="1">
         <f t="array" ref="M485">PAGE_NAME(B485)</f>
@@ -24442,10 +24451,10 @@
         <v>485</v>
       </c>
       <c r="B486" s="52" t="s">
-        <v>853</v>
+        <v>844</v>
       </c>
       <c r="C486" s="8" t="s">
-        <v>863</v>
+        <v>854</v>
       </c>
       <c r="D486" s="7" t="s">
         <v>32</v>
@@ -24457,7 +24466,7 @@
         <v>1</v>
       </c>
       <c r="H486" s="12" t="s">
-        <v>859</v>
+        <v>850</v>
       </c>
       <c r="M486" s="9" t="str" cm="1">
         <f t="array" ref="M486">PAGE_NAME(B486)</f>
@@ -24484,10 +24493,10 @@
         <v>486</v>
       </c>
       <c r="B487" s="52" t="s">
-        <v>853</v>
+        <v>844</v>
       </c>
       <c r="C487" s="8" t="s">
-        <v>864</v>
+        <v>855</v>
       </c>
       <c r="D487" s="7" t="s">
         <v>32</v>
@@ -24499,7 +24508,7 @@
         <v>1</v>
       </c>
       <c r="H487" s="12" t="s">
-        <v>865</v>
+        <v>856</v>
       </c>
       <c r="M487" s="9" t="str" cm="1">
         <f t="array" ref="M487">PAGE_NAME(B487)</f>
@@ -24526,10 +24535,10 @@
         <v>487</v>
       </c>
       <c r="B488" s="52" t="s">
-        <v>853</v>
+        <v>844</v>
       </c>
       <c r="C488" s="8" t="s">
-        <v>866</v>
+        <v>857</v>
       </c>
       <c r="D488" s="7" t="s">
         <v>32</v>
@@ -24541,7 +24550,7 @@
         <v>1</v>
       </c>
       <c r="H488" s="12" t="s">
-        <v>865</v>
+        <v>856</v>
       </c>
       <c r="M488" s="9" t="str" cm="1">
         <f t="array" ref="M488">PAGE_NAME(B488)</f>
@@ -24568,10 +24577,10 @@
         <v>488</v>
       </c>
       <c r="B489" s="52" t="s">
-        <v>853</v>
+        <v>844</v>
       </c>
       <c r="C489" s="8" t="s">
-        <v>867</v>
+        <v>858</v>
       </c>
       <c r="D489" s="7" t="s">
         <v>36</v>
@@ -24583,7 +24592,7 @@
         <v>1</v>
       </c>
       <c r="H489" s="12" t="s">
-        <v>865</v>
+        <v>856</v>
       </c>
       <c r="M489" s="9" t="str" cm="1">
         <f t="array" ref="M489">PAGE_NAME(B489)</f>
@@ -24610,10 +24619,10 @@
         <v>489</v>
       </c>
       <c r="B490" s="52" t="s">
-        <v>868</v>
+        <v>859</v>
       </c>
       <c r="C490" s="8" t="s">
-        <v>869</v>
+        <v>860</v>
       </c>
       <c r="D490" s="7" t="s">
         <v>32</v>
@@ -24646,10 +24655,10 @@
         <v>490</v>
       </c>
       <c r="B491" s="52" t="s">
-        <v>868</v>
+        <v>859</v>
       </c>
       <c r="C491" s="8" t="s">
-        <v>870</v>
+        <v>861</v>
       </c>
       <c r="D491" s="7" t="s">
         <v>32</v>
@@ -24682,10 +24691,10 @@
         <v>491</v>
       </c>
       <c r="B492" s="52" t="s">
-        <v>868</v>
+        <v>859</v>
       </c>
       <c r="C492" s="8" t="s">
-        <v>871</v>
+        <v>862</v>
       </c>
       <c r="D492" s="7" t="s">
         <v>32</v>
@@ -24718,10 +24727,10 @@
         <v>492</v>
       </c>
       <c r="B493" s="52" t="s">
-        <v>868</v>
+        <v>859</v>
       </c>
       <c r="C493" s="8" t="s">
-        <v>872</v>
+        <v>863</v>
       </c>
       <c r="D493" s="7" t="s">
         <v>32</v>
@@ -24754,10 +24763,10 @@
         <v>493</v>
       </c>
       <c r="B494" s="52" t="s">
-        <v>868</v>
+        <v>859</v>
       </c>
       <c r="C494" s="8" t="s">
-        <v>873</v>
+        <v>864</v>
       </c>
       <c r="D494" s="7" t="s">
         <v>32</v>
@@ -24790,10 +24799,10 @@
         <v>494</v>
       </c>
       <c r="B495" s="52" t="s">
-        <v>868</v>
+        <v>859</v>
       </c>
       <c r="C495" s="8" t="s">
-        <v>874</v>
+        <v>865</v>
       </c>
       <c r="D495" s="7" t="s">
         <v>32</v>
@@ -24826,10 +24835,10 @@
         <v>495</v>
       </c>
       <c r="B496" s="52" t="s">
-        <v>868</v>
+        <v>859</v>
       </c>
       <c r="C496" s="8" t="s">
-        <v>875</v>
+        <v>866</v>
       </c>
       <c r="D496" s="7" t="s">
         <v>32</v>
@@ -24862,10 +24871,10 @@
         <v>496</v>
       </c>
       <c r="B497" s="52" t="s">
-        <v>868</v>
+        <v>859</v>
       </c>
       <c r="C497" s="8" t="s">
-        <v>876</v>
+        <v>867</v>
       </c>
       <c r="D497" s="7" t="s">
         <v>32</v>
@@ -24898,10 +24907,10 @@
         <v>497</v>
       </c>
       <c r="B498" s="52" t="s">
+        <v>859</v>
+      </c>
+      <c r="C498" s="8" t="s">
         <v>868</v>
-      </c>
-      <c r="C498" s="8" t="s">
-        <v>877</v>
       </c>
       <c r="D498" s="7" t="s">
         <v>32</v>
@@ -24934,10 +24943,10 @@
         <v>498</v>
       </c>
       <c r="B499" s="52" t="s">
-        <v>868</v>
+        <v>859</v>
       </c>
       <c r="C499" s="8" t="s">
-        <v>878</v>
+        <v>869</v>
       </c>
       <c r="D499" s="7" t="s">
         <v>32</v>
@@ -24970,10 +24979,10 @@
         <v>499</v>
       </c>
       <c r="B500" s="52" t="s">
-        <v>868</v>
+        <v>859</v>
       </c>
       <c r="C500" s="8" t="s">
-        <v>879</v>
+        <v>870</v>
       </c>
       <c r="D500" s="7" t="s">
         <v>32</v>
@@ -25006,10 +25015,10 @@
         <v>500</v>
       </c>
       <c r="B501" s="52" t="s">
-        <v>868</v>
+        <v>859</v>
       </c>
       <c r="C501" s="8" t="s">
-        <v>880</v>
+        <v>871</v>
       </c>
       <c r="D501" s="7" t="s">
         <v>32</v>
@@ -25042,10 +25051,10 @@
         <v>501</v>
       </c>
       <c r="B502" s="52" t="s">
-        <v>868</v>
+        <v>859</v>
       </c>
       <c r="C502" s="8" t="s">
-        <v>881</v>
+        <v>872</v>
       </c>
       <c r="D502" s="7" t="s">
         <v>32</v>
@@ -25078,10 +25087,10 @@
         <v>502</v>
       </c>
       <c r="B503" s="52" t="s">
-        <v>868</v>
+        <v>859</v>
       </c>
       <c r="C503" s="8" t="s">
-        <v>882</v>
+        <v>873</v>
       </c>
       <c r="D503" s="7" t="s">
         <v>32</v>
@@ -25114,10 +25123,10 @@
         <v>503</v>
       </c>
       <c r="B504" s="52" t="s">
-        <v>868</v>
+        <v>859</v>
       </c>
       <c r="C504" s="8" t="s">
-        <v>883</v>
+        <v>874</v>
       </c>
       <c r="D504" s="7" t="s">
         <v>32</v>
@@ -25150,10 +25159,10 @@
         <v>504</v>
       </c>
       <c r="B505" s="52" t="s">
-        <v>868</v>
+        <v>859</v>
       </c>
       <c r="C505" s="8" t="s">
-        <v>884</v>
+        <v>875</v>
       </c>
       <c r="D505" s="7" t="s">
         <v>32</v>
@@ -25186,10 +25195,10 @@
         <v>505</v>
       </c>
       <c r="B506" s="52" t="s">
-        <v>868</v>
+        <v>859</v>
       </c>
       <c r="C506" s="8" t="s">
-        <v>885</v>
+        <v>876</v>
       </c>
       <c r="D506" s="7" t="s">
         <v>32</v>
@@ -25222,10 +25231,10 @@
         <v>506</v>
       </c>
       <c r="B507" s="52" t="s">
-        <v>868</v>
+        <v>859</v>
       </c>
       <c r="C507" s="8" t="s">
-        <v>886</v>
+        <v>877</v>
       </c>
       <c r="D507" s="7" t="s">
         <v>32</v>
@@ -25258,10 +25267,10 @@
         <v>507</v>
       </c>
       <c r="B508" s="52" t="s">
-        <v>868</v>
+        <v>859</v>
       </c>
       <c r="C508" s="8" t="s">
-        <v>887</v>
+        <v>878</v>
       </c>
       <c r="D508" s="7" t="s">
         <v>32</v>
@@ -25294,10 +25303,10 @@
         <v>508</v>
       </c>
       <c r="B509" s="52" t="s">
-        <v>868</v>
+        <v>859</v>
       </c>
       <c r="C509" s="8" t="s">
-        <v>888</v>
+        <v>879</v>
       </c>
       <c r="D509" s="7" t="s">
         <v>32</v>
@@ -25309,7 +25318,7 @@
         <v>1</v>
       </c>
       <c r="H509" s="12" t="s">
-        <v>889</v>
+        <v>880</v>
       </c>
       <c r="M509" s="9" t="str" cm="1">
         <f t="array" ref="M509">PAGE_NAME(B509)</f>
@@ -25333,10 +25342,10 @@
         <v>509</v>
       </c>
       <c r="B510" s="52" t="s">
-        <v>868</v>
+        <v>859</v>
       </c>
       <c r="C510" s="8" t="s">
-        <v>890</v>
+        <v>881</v>
       </c>
       <c r="D510" s="7" t="s">
         <v>32</v>
@@ -25348,7 +25357,7 @@
         <v>1</v>
       </c>
       <c r="H510" s="12" t="s">
-        <v>891</v>
+        <v>882</v>
       </c>
       <c r="M510" s="9" t="str" cm="1">
         <f t="array" ref="M510">PAGE_NAME(B510)</f>
@@ -25372,10 +25381,10 @@
         <v>510</v>
       </c>
       <c r="B511" s="52" t="s">
-        <v>868</v>
+        <v>859</v>
       </c>
       <c r="C511" s="8" t="s">
-        <v>892</v>
+        <v>883</v>
       </c>
       <c r="D511" s="7" t="s">
         <v>36</v>
@@ -25408,10 +25417,10 @@
         <v>511</v>
       </c>
       <c r="B512" s="52" t="s">
-        <v>893</v>
+        <v>884</v>
       </c>
       <c r="C512" s="8" t="s">
-        <v>894</v>
+        <v>885</v>
       </c>
       <c r="D512" s="7" t="s">
         <v>32</v>
@@ -25423,7 +25432,7 @@
         <v>1</v>
       </c>
       <c r="H512" s="12" t="s">
-        <v>895</v>
+        <v>886</v>
       </c>
       <c r="M512" s="9" t="str" cm="1">
         <f t="array" ref="M512">PAGE_NAME(B512)</f>
@@ -25447,10 +25456,10 @@
         <v>512</v>
       </c>
       <c r="B513" s="52" t="s">
-        <v>893</v>
+        <v>884</v>
       </c>
       <c r="C513" s="8" t="s">
-        <v>896</v>
+        <v>887</v>
       </c>
       <c r="D513" s="7" t="s">
         <v>40</v>
@@ -25462,7 +25471,7 @@
         <v>1</v>
       </c>
       <c r="H513" s="12" t="s">
-        <v>895</v>
+        <v>886</v>
       </c>
       <c r="M513" s="9" t="str" cm="1">
         <f t="array" ref="M513">PAGE_NAME(B513)</f>
@@ -25486,10 +25495,10 @@
         <v>513</v>
       </c>
       <c r="B514" s="52" t="s">
-        <v>897</v>
+        <v>888</v>
       </c>
       <c r="C514" s="8" t="s">
-        <v>898</v>
+        <v>889</v>
       </c>
       <c r="D514" s="7" t="s">
         <v>36</v>
@@ -25522,10 +25531,10 @@
         <v>514</v>
       </c>
       <c r="B515" s="52" t="s">
-        <v>899</v>
+        <v>890</v>
       </c>
       <c r="C515" s="8" t="s">
-        <v>900</v>
+        <v>891</v>
       </c>
       <c r="D515" s="7" t="s">
         <v>40</v>
@@ -25558,10 +25567,10 @@
         <v>515</v>
       </c>
       <c r="B516" s="52" t="s">
-        <v>899</v>
+        <v>890</v>
       </c>
       <c r="C516" s="8" t="s">
-        <v>901</v>
+        <v>892</v>
       </c>
       <c r="D516" s="7" t="s">
         <v>36</v>
@@ -25594,10 +25603,10 @@
         <v>516</v>
       </c>
       <c r="B517" s="52" t="s">
-        <v>899</v>
+        <v>890</v>
       </c>
       <c r="C517" s="8" t="s">
-        <v>902</v>
+        <v>893</v>
       </c>
       <c r="D517" s="7" t="s">
         <v>32</v>
@@ -25609,7 +25618,7 @@
         <v>1</v>
       </c>
       <c r="H517" s="12" t="s">
-        <v>859</v>
+        <v>850</v>
       </c>
       <c r="M517" s="9" t="str" cm="1">
         <f t="array" ref="M517">PAGE_NAME(B517)</f>
@@ -25636,10 +25645,10 @@
         <v>517</v>
       </c>
       <c r="B518" s="52" t="s">
-        <v>899</v>
+        <v>890</v>
       </c>
       <c r="C518" s="8" t="s">
-        <v>903</v>
+        <v>894</v>
       </c>
       <c r="D518" s="7" t="s">
         <v>32</v>
@@ -25651,7 +25660,7 @@
         <v>1</v>
       </c>
       <c r="H518" s="12" t="s">
-        <v>859</v>
+        <v>850</v>
       </c>
       <c r="M518" s="9" t="str" cm="1">
         <f t="array" ref="M518">PAGE_NAME(B518)</f>
@@ -25678,10 +25687,10 @@
         <v>518</v>
       </c>
       <c r="B519" s="52" t="s">
-        <v>899</v>
+        <v>890</v>
       </c>
       <c r="C519" s="8" t="s">
-        <v>904</v>
+        <v>895</v>
       </c>
       <c r="D519" s="7" t="s">
         <v>32</v>
@@ -25693,7 +25702,7 @@
         <v>1</v>
       </c>
       <c r="H519" s="12" t="s">
-        <v>862</v>
+        <v>853</v>
       </c>
       <c r="M519" s="9" t="str" cm="1">
         <f t="array" ref="M519">PAGE_NAME(B519)</f>
@@ -25720,10 +25729,10 @@
         <v>519</v>
       </c>
       <c r="B520" s="52" t="s">
-        <v>899</v>
+        <v>890</v>
       </c>
       <c r="C520" s="8" t="s">
-        <v>905</v>
+        <v>896</v>
       </c>
       <c r="D520" s="7" t="s">
         <v>32</v>
@@ -25735,7 +25744,7 @@
         <v>1</v>
       </c>
       <c r="H520" s="12" t="s">
-        <v>859</v>
+        <v>850</v>
       </c>
       <c r="M520" s="9" t="str" cm="1">
         <f t="array" ref="M520">PAGE_NAME(B520)</f>
@@ -25762,10 +25771,10 @@
         <v>520</v>
       </c>
       <c r="B521" s="52" t="s">
-        <v>899</v>
+        <v>890</v>
       </c>
       <c r="C521" s="8" t="s">
-        <v>906</v>
+        <v>897</v>
       </c>
       <c r="D521" s="7" t="s">
         <v>32</v>
@@ -25777,7 +25786,7 @@
         <v>1</v>
       </c>
       <c r="H521" s="12" t="s">
-        <v>865</v>
+        <v>856</v>
       </c>
       <c r="M521" s="9" t="str" cm="1">
         <f t="array" ref="M521">PAGE_NAME(B521)</f>
@@ -25804,10 +25813,10 @@
         <v>521</v>
       </c>
       <c r="B522" s="52" t="s">
-        <v>899</v>
+        <v>890</v>
       </c>
       <c r="C522" s="8" t="s">
-        <v>907</v>
+        <v>898</v>
       </c>
       <c r="D522" s="7" t="s">
         <v>32</v>
@@ -25819,7 +25828,7 @@
         <v>1</v>
       </c>
       <c r="H522" s="12" t="s">
-        <v>865</v>
+        <v>856</v>
       </c>
       <c r="M522" s="9" t="str" cm="1">
         <f t="array" ref="M522">PAGE_NAME(B522)</f>
@@ -25846,10 +25855,10 @@
         <v>522</v>
       </c>
       <c r="B523" s="52" t="s">
+        <v>890</v>
+      </c>
+      <c r="C523" s="8" t="s">
         <v>899</v>
-      </c>
-      <c r="C523" s="8" t="s">
-        <v>908</v>
       </c>
       <c r="D523" s="7" t="s">
         <v>36</v>
@@ -25861,7 +25870,7 @@
         <v>1</v>
       </c>
       <c r="H523" s="12" t="s">
-        <v>865</v>
+        <v>856</v>
       </c>
       <c r="M523" s="9" t="str" cm="1">
         <f t="array" ref="M523">PAGE_NAME(B523)</f>
@@ -25888,10 +25897,10 @@
         <v>523</v>
       </c>
       <c r="B524" s="52" t="s">
-        <v>909</v>
+        <v>900</v>
       </c>
       <c r="C524" s="8" t="s">
-        <v>910</v>
+        <v>901</v>
       </c>
       <c r="D524" s="7" t="s">
         <v>40</v>
@@ -25924,10 +25933,10 @@
         <v>524</v>
       </c>
       <c r="B525" s="52" t="s">
-        <v>909</v>
+        <v>900</v>
       </c>
       <c r="C525" s="8" t="s">
-        <v>911</v>
+        <v>902</v>
       </c>
       <c r="D525" s="7" t="s">
         <v>32</v>
@@ -25939,7 +25948,7 @@
         <v>1</v>
       </c>
       <c r="H525" s="12" t="s">
-        <v>912</v>
+        <v>903</v>
       </c>
       <c r="M525" s="9" t="str" cm="1">
         <f t="array" ref="M525">PAGE_NAME(B525)</f>
@@ -25963,10 +25972,10 @@
         <v>525</v>
       </c>
       <c r="B526" s="52" t="s">
-        <v>909</v>
+        <v>900</v>
       </c>
       <c r="C526" s="8" t="s">
-        <v>913</v>
+        <v>904</v>
       </c>
       <c r="D526" s="7" t="s">
         <v>32</v>
@@ -25999,10 +26008,10 @@
         <v>526</v>
       </c>
       <c r="B527" s="52" t="s">
-        <v>909</v>
+        <v>900</v>
       </c>
       <c r="C527" s="8" t="s">
-        <v>914</v>
+        <v>905</v>
       </c>
       <c r="D527" s="7" t="s">
         <v>40</v>
@@ -26035,10 +26044,10 @@
         <v>527</v>
       </c>
       <c r="B528" s="52" t="s">
-        <v>915</v>
+        <v>906</v>
       </c>
       <c r="C528" s="8" t="s">
-        <v>916</v>
+        <v>907</v>
       </c>
       <c r="D528" s="7" t="s">
         <v>36</v>
@@ -26071,10 +26080,10 @@
         <v>528</v>
       </c>
       <c r="B529" s="52" t="s">
-        <v>917</v>
+        <v>908</v>
       </c>
       <c r="C529" s="8" t="s">
-        <v>918</v>
+        <v>909</v>
       </c>
       <c r="D529" s="7" t="s">
         <v>40</v>
@@ -26107,10 +26116,10 @@
         <v>529</v>
       </c>
       <c r="B530" s="52" t="s">
-        <v>917</v>
+        <v>908</v>
       </c>
       <c r="C530" s="8" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
       <c r="D530" s="7" t="s">
         <v>40</v>
@@ -26143,10 +26152,10 @@
         <v>530</v>
       </c>
       <c r="B531" s="52" t="s">
-        <v>917</v>
+        <v>908</v>
       </c>
       <c r="C531" s="8" t="s">
-        <v>920</v>
+        <v>911</v>
       </c>
       <c r="D531" s="7" t="s">
         <v>40</v>
@@ -26179,10 +26188,10 @@
         <v>531</v>
       </c>
       <c r="B532" s="52" t="s">
-        <v>917</v>
+        <v>908</v>
       </c>
       <c r="C532" s="8" t="s">
-        <v>921</v>
+        <v>912</v>
       </c>
       <c r="D532" s="7" t="s">
         <v>40</v>
@@ -26215,10 +26224,10 @@
         <v>532</v>
       </c>
       <c r="B533" s="52" t="s">
-        <v>922</v>
+        <v>913</v>
       </c>
       <c r="C533" s="8" t="s">
-        <v>923</v>
+        <v>914</v>
       </c>
       <c r="D533" s="7" t="s">
         <v>36</v>
@@ -26251,10 +26260,10 @@
         <v>533</v>
       </c>
       <c r="B534" s="52" t="s">
-        <v>924</v>
+        <v>915</v>
       </c>
       <c r="C534" s="8" t="s">
-        <v>925</v>
+        <v>916</v>
       </c>
       <c r="D534" s="7" t="s">
         <v>32</v>
@@ -26287,10 +26296,10 @@
         <v>534</v>
       </c>
       <c r="B535" s="52" t="s">
-        <v>924</v>
+        <v>915</v>
       </c>
       <c r="C535" s="8" t="s">
-        <v>926</v>
+        <v>917</v>
       </c>
       <c r="D535" s="7" t="s">
         <v>32</v>
@@ -26315,10 +26324,10 @@
         <v>535</v>
       </c>
       <c r="B536" s="52" t="s">
-        <v>924</v>
+        <v>915</v>
       </c>
       <c r="C536" s="8" t="s">
-        <v>927</v>
+        <v>918</v>
       </c>
       <c r="D536" s="7" t="s">
         <v>32</v>
@@ -26343,10 +26352,10 @@
         <v>536</v>
       </c>
       <c r="B537" s="52" t="s">
-        <v>924</v>
+        <v>915</v>
       </c>
       <c r="C537" s="8" t="s">
-        <v>928</v>
+        <v>919</v>
       </c>
       <c r="D537" s="7" t="s">
         <v>32</v>
@@ -26371,10 +26380,10 @@
         <v>537</v>
       </c>
       <c r="B538" s="52" t="s">
-        <v>924</v>
+        <v>915</v>
       </c>
       <c r="C538" s="8" t="s">
-        <v>929</v>
+        <v>920</v>
       </c>
       <c r="D538" s="7" t="s">
         <v>32</v>
@@ -26399,10 +26408,10 @@
         <v>538</v>
       </c>
       <c r="B539" s="52" t="s">
-        <v>924</v>
+        <v>915</v>
       </c>
       <c r="C539" s="8" t="s">
-        <v>930</v>
+        <v>921</v>
       </c>
       <c r="D539" s="7" t="s">
         <v>32</v>
@@ -26427,10 +26436,10 @@
         <v>539</v>
       </c>
       <c r="B540" s="52" t="s">
-        <v>924</v>
+        <v>915</v>
       </c>
       <c r="C540" s="8" t="s">
-        <v>931</v>
+        <v>922</v>
       </c>
       <c r="D540" s="7" t="s">
         <v>32</v>
@@ -26455,10 +26464,10 @@
         <v>540</v>
       </c>
       <c r="B541" s="52" t="s">
-        <v>924</v>
+        <v>915</v>
       </c>
       <c r="C541" s="8" t="s">
-        <v>932</v>
+        <v>923</v>
       </c>
       <c r="D541" s="7" t="s">
         <v>32</v>
@@ -26483,10 +26492,10 @@
         <v>541</v>
       </c>
       <c r="B542" s="52" t="s">
+        <v>915</v>
+      </c>
+      <c r="C542" s="8" t="s">
         <v>924</v>
-      </c>
-      <c r="C542" s="8" t="s">
-        <v>933</v>
       </c>
       <c r="D542" s="7" t="s">
         <v>36</v>
@@ -26511,10 +26520,10 @@
         <v>542</v>
       </c>
       <c r="B543" s="52" t="s">
-        <v>924</v>
+        <v>915</v>
       </c>
       <c r="C543" s="8" t="s">
-        <v>934</v>
+        <v>925</v>
       </c>
       <c r="D543" s="7" t="s">
         <v>36</v>
@@ -26539,10 +26548,10 @@
         <v>543</v>
       </c>
       <c r="B544" s="52" t="s">
-        <v>924</v>
+        <v>915</v>
       </c>
       <c r="C544" s="8" t="s">
-        <v>935</v>
+        <v>926</v>
       </c>
       <c r="D544" s="7" t="s">
         <v>32</v>
@@ -26554,7 +26563,7 @@
         <v>1</v>
       </c>
       <c r="H544" s="12" t="s">
-        <v>936</v>
+        <v>927</v>
       </c>
       <c r="M544" s="9" t="str" cm="1">
         <f t="array" ref="M544">PAGE_NAME(B544)</f>
@@ -26570,10 +26579,10 @@
         <v>544</v>
       </c>
       <c r="B545" s="52" t="s">
-        <v>924</v>
+        <v>915</v>
       </c>
       <c r="C545" s="8" t="s">
-        <v>937</v>
+        <v>928</v>
       </c>
       <c r="D545" s="7" t="s">
         <v>40</v>
@@ -26598,10 +26607,10 @@
         <v>545</v>
       </c>
       <c r="B546" s="52" t="s">
-        <v>924</v>
+        <v>915</v>
       </c>
       <c r="C546" s="8" t="s">
-        <v>938</v>
+        <v>929</v>
       </c>
       <c r="D546" s="7" t="s">
         <v>40</v>
@@ -26626,10 +26635,10 @@
         <v>546</v>
       </c>
       <c r="B547" s="52" t="s">
-        <v>924</v>
+        <v>915</v>
       </c>
       <c r="C547" s="8" t="s">
-        <v>939</v>
+        <v>930</v>
       </c>
       <c r="D547" s="7" t="s">
         <v>40</v>
@@ -26654,10 +26663,10 @@
         <v>547</v>
       </c>
       <c r="B548" s="52" t="s">
-        <v>924</v>
+        <v>915</v>
       </c>
       <c r="C548" s="8" t="s">
-        <v>940</v>
+        <v>931</v>
       </c>
       <c r="D548" s="7" t="s">
         <v>40</v>
@@ -26682,10 +26691,10 @@
         <v>548</v>
       </c>
       <c r="B549" s="52" t="s">
-        <v>941</v>
+        <v>932</v>
       </c>
       <c r="C549" s="8" t="s">
-        <v>942</v>
+        <v>933</v>
       </c>
       <c r="D549" s="7" t="s">
         <v>36</v>
@@ -26710,10 +26719,10 @@
         <v>549</v>
       </c>
       <c r="B550" s="52" t="s">
-        <v>941</v>
+        <v>932</v>
       </c>
       <c r="C550" s="8" t="s">
-        <v>943</v>
+        <v>934</v>
       </c>
       <c r="D550" s="7" t="s">
         <v>36</v>
@@ -26725,7 +26734,7 @@
         <v>1</v>
       </c>
       <c r="H550" s="12" t="s">
-        <v>944</v>
+        <v>935</v>
       </c>
       <c r="M550" s="9" t="str" cm="1">
         <f t="array" ref="M550">PAGE_NAME(B550)</f>
@@ -26741,10 +26750,10 @@
         <v>550</v>
       </c>
       <c r="B551" s="52" t="s">
-        <v>945</v>
+        <v>936</v>
       </c>
       <c r="C551" s="8" t="s">
-        <v>946</v>
+        <v>937</v>
       </c>
       <c r="D551" s="7" t="s">
         <v>32</v>
@@ -26769,10 +26778,10 @@
         <v>551</v>
       </c>
       <c r="B552" s="52" t="s">
-        <v>945</v>
+        <v>936</v>
       </c>
       <c r="C552" s="8" t="s">
-        <v>946</v>
+        <v>937</v>
       </c>
       <c r="D552" s="7" t="s">
         <v>32</v>
@@ -26797,10 +26806,10 @@
         <v>552</v>
       </c>
       <c r="B553" s="52" t="s">
-        <v>945</v>
+        <v>936</v>
       </c>
       <c r="C553" s="8" t="s">
-        <v>947</v>
+        <v>938</v>
       </c>
       <c r="D553" s="7" t="s">
         <v>36</v>
@@ -26825,10 +26834,10 @@
         <v>553</v>
       </c>
       <c r="B554" s="52" t="s">
-        <v>945</v>
+        <v>936</v>
       </c>
       <c r="C554" s="8" t="s">
-        <v>947</v>
+        <v>938</v>
       </c>
       <c r="D554" s="7" t="s">
         <v>36</v>
@@ -26853,10 +26862,10 @@
         <v>554</v>
       </c>
       <c r="B555" s="52" t="s">
-        <v>945</v>
+        <v>936</v>
       </c>
       <c r="C555" s="8" t="s">
-        <v>948</v>
+        <v>939</v>
       </c>
       <c r="D555" s="7" t="s">
         <v>36</v>
@@ -26881,10 +26890,10 @@
         <v>555</v>
       </c>
       <c r="B556" s="52" t="s">
-        <v>945</v>
+        <v>936</v>
       </c>
       <c r="C556" s="8" t="s">
-        <v>948</v>
+        <v>939</v>
       </c>
       <c r="D556" s="7" t="s">
         <v>36</v>
@@ -26909,10 +26918,10 @@
         <v>556</v>
       </c>
       <c r="B557" s="52" t="s">
-        <v>945</v>
+        <v>936</v>
       </c>
       <c r="C557" s="8" t="s">
-        <v>949</v>
+        <v>940</v>
       </c>
       <c r="D557" s="7" t="s">
         <v>36</v>
@@ -26937,10 +26946,10 @@
         <v>557</v>
       </c>
       <c r="B558" s="52" t="s">
-        <v>945</v>
+        <v>936</v>
       </c>
       <c r="C558" s="8" t="s">
-        <v>949</v>
+        <v>940</v>
       </c>
       <c r="D558" s="7" t="s">
         <v>36</v>
@@ -26965,10 +26974,10 @@
         <v>558</v>
       </c>
       <c r="B559" s="52" t="s">
-        <v>945</v>
+        <v>936</v>
       </c>
       <c r="C559" s="8" t="s">
-        <v>950</v>
+        <v>941</v>
       </c>
       <c r="D559" s="7" t="s">
         <v>32</v>
@@ -26993,10 +27002,10 @@
         <v>559</v>
       </c>
       <c r="B560" s="52" t="s">
-        <v>945</v>
+        <v>936</v>
       </c>
       <c r="C560" s="8" t="s">
-        <v>950</v>
+        <v>941</v>
       </c>
       <c r="D560" s="7" t="s">
         <v>32</v>
@@ -27021,10 +27030,10 @@
         <v>560</v>
       </c>
       <c r="B561" s="52" t="s">
-        <v>945</v>
+        <v>936</v>
       </c>
       <c r="C561" s="8" t="s">
-        <v>951</v>
+        <v>942</v>
       </c>
       <c r="D561" s="7" t="s">
         <v>36</v>
@@ -27049,10 +27058,10 @@
         <v>561</v>
       </c>
       <c r="B562" s="52" t="s">
-        <v>945</v>
+        <v>936</v>
       </c>
       <c r="C562" s="8" t="s">
-        <v>951</v>
+        <v>942</v>
       </c>
       <c r="D562" s="7" t="s">
         <v>36</v>
@@ -27077,10 +27086,10 @@
         <v>562</v>
       </c>
       <c r="B563" s="52" t="s">
-        <v>945</v>
+        <v>936</v>
       </c>
       <c r="C563" s="8" t="s">
-        <v>952</v>
+        <v>943</v>
       </c>
       <c r="D563" s="7" t="s">
         <v>32</v>
@@ -27105,10 +27114,10 @@
         <v>563</v>
       </c>
       <c r="B564" s="52" t="s">
-        <v>945</v>
+        <v>936</v>
       </c>
       <c r="C564" s="8" t="s">
-        <v>952</v>
+        <v>943</v>
       </c>
       <c r="D564" s="7" t="s">
         <v>32</v>
@@ -27133,10 +27142,10 @@
         <v>564</v>
       </c>
       <c r="B565" s="52" t="s">
-        <v>945</v>
+        <v>936</v>
       </c>
       <c r="C565" s="8" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
       <c r="D565" s="7" t="s">
         <v>32</v>
@@ -27161,10 +27170,10 @@
         <v>565</v>
       </c>
       <c r="B566" s="52" t="s">
-        <v>945</v>
+        <v>936</v>
       </c>
       <c r="C566" s="8" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
       <c r="D566" s="7" t="s">
         <v>32</v>
@@ -27189,10 +27198,10 @@
         <v>566</v>
       </c>
       <c r="B567" s="52" t="s">
+        <v>936</v>
+      </c>
+      <c r="C567" s="8" t="s">
         <v>945</v>
-      </c>
-      <c r="C567" s="8" t="s">
-        <v>954</v>
       </c>
       <c r="D567" s="7" t="s">
         <v>36</v>
@@ -27217,10 +27226,10 @@
         <v>567</v>
       </c>
       <c r="B568" s="52" t="s">
+        <v>936</v>
+      </c>
+      <c r="C568" s="8" t="s">
         <v>945</v>
-      </c>
-      <c r="C568" s="8" t="s">
-        <v>954</v>
       </c>
       <c r="D568" s="7" t="s">
         <v>36</v>
@@ -27245,10 +27254,10 @@
         <v>568</v>
       </c>
       <c r="B569" s="52" t="s">
-        <v>945</v>
+        <v>936</v>
       </c>
       <c r="C569" s="8" t="s">
-        <v>955</v>
+        <v>946</v>
       </c>
       <c r="D569" s="7" t="s">
         <v>32</v>
@@ -27273,10 +27282,10 @@
         <v>569</v>
       </c>
       <c r="B570" s="52" t="s">
-        <v>945</v>
+        <v>936</v>
       </c>
       <c r="C570" s="8" t="s">
-        <v>955</v>
+        <v>946</v>
       </c>
       <c r="D570" s="7" t="s">
         <v>32</v>
@@ -27301,10 +27310,10 @@
         <v>570</v>
       </c>
       <c r="B571" s="52" t="s">
-        <v>945</v>
+        <v>936</v>
       </c>
       <c r="C571" s="8" t="s">
-        <v>956</v>
+        <v>947</v>
       </c>
       <c r="D571" s="7" t="s">
         <v>32</v>
@@ -27329,10 +27338,10 @@
         <v>571</v>
       </c>
       <c r="B572" s="52" t="s">
-        <v>945</v>
+        <v>936</v>
       </c>
       <c r="C572" s="8" t="s">
-        <v>956</v>
+        <v>947</v>
       </c>
       <c r="D572" s="7" t="s">
         <v>32</v>
@@ -27357,10 +27366,10 @@
         <v>572</v>
       </c>
       <c r="B573" s="52" t="s">
-        <v>945</v>
+        <v>936</v>
       </c>
       <c r="C573" s="8" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="D573" s="7" t="s">
         <v>32</v>
@@ -27385,10 +27394,10 @@
         <v>573</v>
       </c>
       <c r="B574" s="52" t="s">
-        <v>945</v>
+        <v>936</v>
       </c>
       <c r="C574" s="8" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="D574" s="7" t="s">
         <v>32</v>
@@ -27413,10 +27422,10 @@
         <v>574</v>
       </c>
       <c r="B575" s="52" t="s">
-        <v>945</v>
+        <v>936</v>
       </c>
       <c r="C575" s="8" t="s">
-        <v>958</v>
+        <v>949</v>
       </c>
       <c r="D575" s="7" t="s">
         <v>36</v>
@@ -27441,10 +27450,10 @@
         <v>575</v>
       </c>
       <c r="B576" s="52" t="s">
-        <v>945</v>
+        <v>936</v>
       </c>
       <c r="C576" s="8" t="s">
-        <v>958</v>
+        <v>949</v>
       </c>
       <c r="D576" s="7" t="s">
         <v>36</v>
@@ -27469,10 +27478,10 @@
         <v>576</v>
       </c>
       <c r="B577" s="52" t="s">
-        <v>945</v>
+        <v>936</v>
       </c>
       <c r="C577" s="8" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="D577" s="7" t="s">
         <v>36</v>
@@ -27497,10 +27506,10 @@
         <v>577</v>
       </c>
       <c r="B578" s="52" t="s">
-        <v>945</v>
+        <v>936</v>
       </c>
       <c r="C578" s="8" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="D578" s="7" t="s">
         <v>36</v>
@@ -27525,10 +27534,10 @@
         <v>578</v>
       </c>
       <c r="B579" s="52" t="s">
-        <v>945</v>
+        <v>936</v>
       </c>
       <c r="C579" s="8" t="s">
-        <v>960</v>
+        <v>951</v>
       </c>
       <c r="D579" s="7" t="s">
         <v>40</v>
@@ -27553,10 +27562,10 @@
         <v>579</v>
       </c>
       <c r="B580" s="52" t="s">
-        <v>945</v>
+        <v>936</v>
       </c>
       <c r="C580" s="8" t="s">
-        <v>960</v>
+        <v>951</v>
       </c>
       <c r="D580" s="7" t="s">
         <v>40</v>
@@ -27581,10 +27590,10 @@
         <v>580</v>
       </c>
       <c r="B581" s="52" t="s">
-        <v>945</v>
+        <v>936</v>
       </c>
       <c r="C581" s="8" t="s">
-        <v>961</v>
+        <v>952</v>
       </c>
       <c r="D581" s="7" t="s">
         <v>40</v>
@@ -27609,10 +27618,10 @@
         <v>581</v>
       </c>
       <c r="B582" s="52" t="s">
-        <v>945</v>
+        <v>936</v>
       </c>
       <c r="C582" s="8" t="s">
-        <v>961</v>
+        <v>952</v>
       </c>
       <c r="D582" s="7" t="s">
         <v>40</v>
@@ -27637,10 +27646,10 @@
         <v>582</v>
       </c>
       <c r="B583" s="52" t="s">
-        <v>962</v>
+        <v>953</v>
       </c>
       <c r="C583" s="8" t="s">
-        <v>963</v>
+        <v>954</v>
       </c>
       <c r="D583" s="7" t="s">
         <v>32</v>
@@ -27652,7 +27661,7 @@
         <v>1</v>
       </c>
       <c r="H583" s="12" t="s">
-        <v>964</v>
+        <v>955</v>
       </c>
       <c r="M583" s="9" t="str" cm="1">
         <f t="array" ref="M583">PAGE_NAME(B583)</f>
@@ -27668,10 +27677,10 @@
         <v>583</v>
       </c>
       <c r="B584" s="52" t="s">
-        <v>962</v>
+        <v>953</v>
       </c>
       <c r="C584" s="8" t="s">
-        <v>963</v>
+        <v>954</v>
       </c>
       <c r="D584" s="7" t="s">
         <v>32</v>
@@ -27683,7 +27692,7 @@
         <v>1</v>
       </c>
       <c r="H584" s="12" t="s">
-        <v>964</v>
+        <v>955</v>
       </c>
       <c r="M584" s="9" t="str" cm="1">
         <f t="array" ref="M584">PAGE_NAME(B584)</f>
@@ -27699,10 +27708,10 @@
         <v>584</v>
       </c>
       <c r="B585" s="52" t="s">
-        <v>893</v>
+        <v>884</v>
       </c>
       <c r="C585" s="8" t="s">
-        <v>965</v>
+        <v>956</v>
       </c>
       <c r="D585" s="7" t="s">
         <v>32</v>
@@ -27714,7 +27723,7 @@
         <v>1</v>
       </c>
       <c r="H585" s="12" t="s">
-        <v>895</v>
+        <v>886</v>
       </c>
       <c r="M585" s="9" t="str" cm="1">
         <f t="array" ref="M585">PAGE_NAME(B585)</f>
@@ -27769,7 +27778,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C323F474-BE25-4449-9222-E1A46A1843B5}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -27781,7 +27790,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="409.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="59" t="s">
-        <v>966</v>
+        <v>957</v>
       </c>
       <c r="B1" s="60"/>
     </row>
@@ -27791,81 +27800,81 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
-        <v>967</v>
+        <v>958</v>
       </c>
       <c r="B3" t="s">
-        <v>968</v>
+        <v>959</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
-        <v>969</v>
+        <v>960</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
-        <v>970</v>
+        <v>961</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>971</v>
+        <v>962</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
-        <v>972</v>
+        <v>963</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>973</v>
+        <v>964</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>974</v>
+        <v>965</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>975</v>
+        <v>966</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>976</v>
+        <v>967</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>977</v>
+        <v>968</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
-        <v>978</v>
+        <v>969</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>979</v>
+        <v>970</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="153" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
-        <v>980</v>
+        <v>971</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>981</v>
+        <v>972</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
-        <v>982</v>
+        <v>973</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>983</v>
+        <v>974</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
-        <v>984</v>
+        <v>975</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>985</v>
+        <v>976</v>
       </c>
     </row>
   </sheetData>
@@ -27896,19 +27905,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>970</v>
+        <v>961</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>986</v>
+        <v>977</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>987</v>
+        <v>978</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>988</v>
+        <v>979</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>989</v>
+        <v>980</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -27916,13 +27925,13 @@
         <v>0.1</v>
       </c>
       <c r="B2" t="s">
-        <v>990</v>
+        <v>981</v>
       </c>
       <c r="C2" s="42" t="s">
-        <v>991</v>
+        <v>982</v>
       </c>
       <c r="D2" t="s">
-        <v>992</v>
+        <v>983</v>
       </c>
       <c r="E2" s="43">
         <v>45618</v>
@@ -27948,13 +27957,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>993</v>
+        <v>984</v>
       </c>
       <c r="B1" t="s">
         <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>994</v>
+        <v>985</v>
       </c>
       <c r="D1" t="s">
         <v>16</v>
@@ -27968,7 +27977,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>995</v>
+        <v>986</v>
       </c>
       <c r="D2" t="s">
         <v>52</v>
@@ -27982,7 +27991,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>996</v>
+        <v>987</v>
       </c>
       <c r="D3" t="s">
         <v>51</v>
@@ -27993,7 +28002,7 @@
         <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>997</v>
+        <v>988</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -28030,6 +28039,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EC335ED7BB179244BF94A0DFE64544DC" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d3a0f66abe5d2a0564332877ab55d3f7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="eebd8b74-b9de-41b2-9247-c010c4973c2b" xmlns:ns3="b7009bbd-f938-489b-a530-f05273710fff" xmlns:ns4="b5a44311-ed64-4a72-909f-c9dc6973bde2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ec7ca2ee893ff8a0f61d4046c6461645" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="eebd8b74-b9de-41b2-9247-c010c4973c2b"/>
@@ -28283,15 +28301,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19B0E317-5E0E-4728-AB3F-40F2C2B957FB}">
   <ds:schemaRefs>
@@ -28311,6 +28320,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA84097F-5807-4DCF-92C6-48C9EE26CFB8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C0B0A19-6928-4F0B-831A-5B9FDDD3F6CE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -28328,12 +28345,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA84097F-5807-4DCF-92C6-48C9EE26CFB8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/lib/us_core_test_kit/requirements/hl7.fhir.us.core_7.0.0_reqs.xlsx
+++ b/lib/us_core_test_kit/requirements/hl7.fhir.us.core_7.0.0_reqs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edeyoung/Documents/inferno/us-core-test-kit/lib/us_core_test_kit/requirements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E9EDD5-F921-5445-8E9A-D4C802F2486A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E6224EF-45DD-6F4F-B14F-11C32984D1D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{D251129A-65BB-5042-909C-749E11B8C0B0}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{D251129A-65BB-5042-909C-749E11B8C0B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="9" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2858" uniqueCount="1003">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2859" uniqueCount="1004">
   <si>
     <r>
       <rPr>
@@ -4596,6 +4596,9 @@
   </si>
   <si>
     <t>certifying systems</t>
+  </si>
+  <si>
+    <t>Duplicate to req 1</t>
   </si>
 </sst>
 </file>
@@ -5596,10 +5599,10 @@
   <dimension ref="A1:V585"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="J460" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="U270" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H460" sqref="H460:H466"/>
+      <selection pane="bottomRight" activeCell="D273" sqref="D273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7049,7 +7052,7 @@
         <v>95</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>33</v>
@@ -7072,6 +7075,9 @@
       <c r="P32" s="10" t="str">
         <f t="shared" si="1"/>
         <v>Server</v>
+      </c>
+      <c r="V32" s="12" t="s">
+        <v>1003</v>
       </c>
     </row>
     <row r="33" spans="1:22" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -15939,7 +15945,7 @@
         <v>496</v>
       </c>
       <c r="D261" s="7" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E261" s="7" t="s">
         <v>33</v>
@@ -16413,7 +16419,7 @@
         <v>517</v>
       </c>
       <c r="D273" s="7" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E273" s="7" t="s">
         <v>33</v>
@@ -25348,7 +25354,7 @@
         <v>881</v>
       </c>
       <c r="D510" s="7" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="E510" s="7" t="s">
         <v>33</v>
@@ -28026,28 +28032,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="b5a44311-ed64-4a72-909f-c9dc6973bde2" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="eebd8b74-b9de-41b2-9247-c010c4973c2b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <Description xmlns="eebd8b74-b9de-41b2-9247-c010c4973c2b" xsi:nil="true"/>
-    <SortOrder xmlns="eebd8b74-b9de-41b2-9247-c010c4973c2b" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EC335ED7BB179244BF94A0DFE64544DC" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d3a0f66abe5d2a0564332877ab55d3f7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="eebd8b74-b9de-41b2-9247-c010c4973c2b" xmlns:ns3="b7009bbd-f938-489b-a530-f05273710fff" xmlns:ns4="b5a44311-ed64-4a72-909f-c9dc6973bde2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ec7ca2ee893ff8a0f61d4046c6461645" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="eebd8b74-b9de-41b2-9247-c010c4973c2b"/>
@@ -28301,33 +28285,29 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19B0E317-5E0E-4728-AB3F-40F2C2B957FB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="b5a44311-ed64-4a72-909f-c9dc6973bde2"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="b7009bbd-f938-489b-a530-f05273710fff"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="eebd8b74-b9de-41b2-9247-c010c4973c2b"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA84097F-5807-4DCF-92C6-48C9EE26CFB8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="b5a44311-ed64-4a72-909f-c9dc6973bde2" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="eebd8b74-b9de-41b2-9247-c010c4973c2b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <Description xmlns="eebd8b74-b9de-41b2-9247-c010c4973c2b" xsi:nil="true"/>
+    <SortOrder xmlns="eebd8b74-b9de-41b2-9247-c010c4973c2b" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C0B0A19-6928-4F0B-831A-5B9FDDD3F6CE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -28345,4 +28325,30 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA84097F-5807-4DCF-92C6-48C9EE26CFB8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19B0E317-5E0E-4728-AB3F-40F2C2B957FB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="b5a44311-ed64-4a72-909f-c9dc6973bde2"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="b7009bbd-f938-489b-a530-f05273710fff"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="eebd8b74-b9de-41b2-9247-c010c4973c2b"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/lib/us_core_test_kit/requirements/hl7.fhir.us.core_7.0.0_reqs.xlsx
+++ b/lib/us_core_test_kit/requirements/hl7.fhir.us.core_7.0.0_reqs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/knaden/Documents/Inferno/source/us-core-test-kit/lib/us_core_test_kit/requirements/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edeyoung/Documents/inferno/us-core-test-kit/lib/us_core_test_kit/requirements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A134E3-941E-7845-A343-6D07F83D6EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E6224EF-45DD-6F4F-B14F-11C32984D1D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20180" activeTab="2" xr2:uid="{D251129A-65BB-5042-909C-749E11B8C0B0}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{D251129A-65BB-5042-909C-749E11B8C0B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="9" r:id="rId1"/>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2860" uniqueCount="998">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2859" uniqueCount="1004">
   <si>
     <r>
       <rPr>
@@ -3838,37 +3838,10 @@
     <t>https://hl7.org/fhir/us/core/STU7/StructureDefinition-us-core-patient.html#mandatory-and-must-support-data-elements, https://hl7.org/fhir/us/core/STU7/StructureDefinition-us-core-race.html#profile-specific-implementation-guidance</t>
   </si>
   <si>
-    <t>[Organizations participating in the ONC Health IT certrification program,] must support at least one category code from OMB Race [category for the [US Core Race Extension] (https://hl7.org/fhir/us/core/STU7/StructureDefinition-us-core-race.html)]</t>
-  </si>
-  <si>
-    <t>For organizations participating in ONC certification, when using the US Core Race Extension</t>
-  </si>
-  <si>
     <t>https://hl7.org/fhir/us/core/STU7/StructureDefinition-us-core-patient.html#mandatory-and-must-support-data-elements, https://hl7.org/fhir/us/core/STU7/StructureDefinition-us-core-ethnicity.html#profile-specific-implementation-guidance</t>
   </si>
   <si>
-    <t>[Organizations participating in the ONC Health IT certrification program,] must support at least one category code from OMB … Ethnicity [category for the [US Core Ethnicity Extension] (https://hl7.org/fhir/us/core/STU7/StructureDefinition-us-core-ethnicity.html)]</t>
-  </si>
-  <si>
-    <t>For organizations participating in ONC certification, When using the US Core Ethnicity Extension</t>
-  </si>
-  <si>
-    <t>[Organizations participating in the ONC Health IT certrification program,] MAY include additional detailed codes from CDC Race … codes [when using the [US Core Race Extension] (https://hl7.org/fhir/us/core/STU7/StructureDefinition-us-core-race.html)]</t>
-  </si>
-  <si>
-    <t>For organizations participating in ONC certification, When using the US Core Race Extension</t>
-  </si>
-  <si>
-    <t>[Organizations participating in the ONC Health IT certrification program,] SHALL include a text description [of category codes when using the [US Core Ethnicity Extension] (https://hl7.org/fhir/us/core/STU7/StructureDefinition-us-core-ethnicity.html)]</t>
-  </si>
-  <si>
     <t>https://hl7.org/fhir/us/core/STU7/StructureDefinition-us-core-patient.html#mandatory-and-must-support-data-elements</t>
-  </si>
-  <si>
-    <t>[For Organizations participating in the ONC Health IT certrification program,] Although Patient.deceased[x] is marked as additional USCDI, certifying systems are not required to support both [boolean and dateTime data types], but SHALL support [at] least Patient.deceasedDateTime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For organizations participating in ONC certification, </t>
   </si>
   <si>
     <t>Proposal for a potentially better way to state this requirement: Certified system SHALL support Patient.deceasedDateTime and MAY support Patient.deceasedBoolean. Non certified system SHALL support at least one date type under Patient.deceased[x]</t>
@@ -4581,6 +4554,51 @@
   </si>
   <si>
     <t>OUT OF SCOPE</t>
+  </si>
+  <si>
+    <t>Marked DEPRECATED because this is an example.</t>
+  </si>
+  <si>
+    <t>Duplicate of 254</t>
+  </si>
+  <si>
+    <t>Duplicate of requirement 260</t>
+  </si>
+  <si>
+    <t>Although Patient.deceased[x] is marked as additional USCDI, certifying systems are not required to support both [boolean and dateTime data types], but SHALL support [at] least Patient.deceasedDateTime</t>
+  </si>
+  <si>
+    <t>The Complex [Extension] for Race ... allow[s] for one or more codes of which must support at least one category code from OMB Race [category for the [US Core Race Extension] (https://hl7.org/fhir/us/core/STU7/StructureDefinition-us-core-race.html)]</t>
+  </si>
+  <si>
+    <t>The Complex [Extension] for Race ... allow[s] for one or more codes of which MAY include additional detailed codes from CDC Race … codes [when using the [US Core Race Extension] (https://hl7.org/fhir/us/core/STU7/StructureDefinition-us-core-race.html)]</t>
+  </si>
+  <si>
+    <t>The Complex [Extension] for Race ... allow[s] for one or more codes of which SHALL include a text description [of category codes when using the [US Core Race Extension] (https://hl7.org/fhir/us/core/STU7/StructureDefinition-us-core-race.html)]</t>
+  </si>
+  <si>
+    <t>The Complex [Extension] for ... Ethnicity allow[s] for one or more codes of which must support at least one category code from OMB … Ethnicity [category for the [US Core Ethnicity Extension] (https://hl7.org/fhir/us/core/STU7/StructureDefinition-us-core-ethnicity.html)]</t>
+  </si>
+  <si>
+    <t>The Complex [Extension] for ... Ethnicity allow[s] for one or more codes of which MAY include additional detailed codes from CDC Race … codes [when using the [US Core Race Extension] (https://hl7.org/fhir/us/core/STU7/StructureDefinition-us-core-race.html)]</t>
+  </si>
+  <si>
+    <t>The Complex [Extension] for ... Ethnicity allow[s] for one or more codes of which SHALL include a text description [of category codes when using the [US Core Ethnicity Extension] (https://hl7.org/fhir/us/core/STU7/StructureDefinition-us-core-ethnicity.html)]</t>
+  </si>
+  <si>
+    <t>when using the US Core Race Extension</t>
+  </si>
+  <si>
+    <t>When using the US Core Ethnicity Extension</t>
+  </si>
+  <si>
+    <t>When using the US Core Race Extension</t>
+  </si>
+  <si>
+    <t>certifying systems</t>
+  </si>
+  <si>
+    <t>Duplicate to req 1</t>
   </si>
 </sst>
 </file>
@@ -5580,11 +5598,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0272D98A-080C-3945-A7E0-CB54FB3A65A9}">
   <dimension ref="A1:V585"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="Q4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="8" ySplit="1" topLeftCell="U270" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomRight" activeCell="D273" sqref="D273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7034,7 +7052,7 @@
         <v>95</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>33</v>
@@ -7057,6 +7075,9 @@
       <c r="P32" s="10" t="str">
         <f t="shared" si="1"/>
         <v>Server</v>
+      </c>
+      <c r="V32" s="12" t="s">
+        <v>1003</v>
       </c>
     </row>
     <row r="33" spans="1:22" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9198,7 +9219,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="C88" s="8" t="s">
         <v>182</v>
@@ -9218,7 +9239,7 @@
       </c>
       <c r="N88" s="9" t="str" cm="1">
         <f t="array" ref="N88">SECTION_NAME(B88)</f>
-        <v>additional-uscdi-requirements</v>
+        <v>defined-pattern-elements</v>
       </c>
       <c r="O88" s="10" t="str">
         <f t="shared" si="4"/>
@@ -9243,7 +9264,7 @@
         <v>185</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="E89" s="7" t="s">
         <v>33</v>
@@ -9270,6 +9291,9 @@
         <f t="shared" si="3"/>
         <v>Server</v>
       </c>
+      <c r="V89" s="12" t="s">
+        <v>989</v>
+      </c>
     </row>
     <row r="90" spans="1:22" ht="136" x14ac:dyDescent="0.2">
       <c r="A90" s="7">
@@ -9282,7 +9306,7 @@
         <v>187</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="E90" s="7" t="s">
         <v>76</v>
@@ -9308,6 +9332,9 @@
       <c r="P90" s="10" t="str">
         <f t="shared" si="3"/>
         <v>Client</v>
+      </c>
+      <c r="V90" s="12" t="s">
+        <v>989</v>
       </c>
     </row>
     <row r="91" spans="1:22" ht="68" x14ac:dyDescent="0.2">
@@ -15163,7 +15190,7 @@
         <v>support-requirements</v>
       </c>
     </row>
-    <row r="241" spans="1:17" ht="170" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:22" ht="170" x14ac:dyDescent="0.2">
       <c r="A241" s="7">
         <v>240</v>
       </c>
@@ -15194,7 +15221,7 @@
         <v>support-requirements</v>
       </c>
     </row>
-    <row r="242" spans="1:17" ht="170" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:22" ht="170" x14ac:dyDescent="0.2">
       <c r="A242" s="7">
         <v>241</v>
       </c>
@@ -15225,7 +15252,7 @@
         <v>support-requirements</v>
       </c>
     </row>
-    <row r="243" spans="1:17" ht="170" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:22" ht="170" x14ac:dyDescent="0.2">
       <c r="A243" s="7">
         <v>242</v>
       </c>
@@ -15256,7 +15283,7 @@
         <v>discovering-server-read-and-write-formats</v>
       </c>
     </row>
-    <row r="244" spans="1:17" ht="170" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:22" ht="170" x14ac:dyDescent="0.2">
       <c r="A244" s="7">
         <v>243</v>
       </c>
@@ -15287,7 +15314,7 @@
         <v>discovering-server-read-and-write-formats</v>
       </c>
     </row>
-    <row r="245" spans="1:17" ht="187" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:22" ht="187" x14ac:dyDescent="0.2">
       <c r="A245" s="7">
         <v>244</v>
       </c>
@@ -15318,7 +15345,7 @@
         <v>discovering-server-read-and-write-formats</v>
       </c>
     </row>
-    <row r="246" spans="1:17" ht="187" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:22" ht="187" x14ac:dyDescent="0.2">
       <c r="A246" s="7">
         <v>245</v>
       </c>
@@ -15349,7 +15376,7 @@
         <v>discovering-server-read-and-write-formats</v>
       </c>
     </row>
-    <row r="247" spans="1:17" ht="102" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:22" ht="102" x14ac:dyDescent="0.2">
       <c r="A247" s="7">
         <v>246</v>
       </c>
@@ -15388,7 +15415,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="248" spans="1:17" ht="119" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:22" ht="119" x14ac:dyDescent="0.2">
       <c r="A248" s="7">
         <v>247</v>
       </c>
@@ -15430,7 +15457,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="249" spans="1:17" ht="85" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:22" ht="85" x14ac:dyDescent="0.2">
       <c r="A249" s="7">
         <v>248</v>
       </c>
@@ -15469,7 +15496,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="250" spans="1:17" ht="102" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:22" ht="102" x14ac:dyDescent="0.2">
       <c r="A250" s="7">
         <v>249</v>
       </c>
@@ -15511,7 +15538,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="251" spans="1:17" ht="68" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:22" ht="68" x14ac:dyDescent="0.2">
       <c r="A251" s="7">
         <v>250</v>
       </c>
@@ -15553,7 +15580,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="252" spans="1:17" ht="102" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:22" ht="102" x14ac:dyDescent="0.2">
       <c r="A252" s="7">
         <v>251</v>
       </c>
@@ -15595,7 +15622,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="253" spans="1:17" ht="204" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:22" ht="204" x14ac:dyDescent="0.2">
       <c r="A253" s="7">
         <v>252</v>
       </c>
@@ -15634,7 +15661,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="254" spans="1:17" ht="170" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:22" ht="170" x14ac:dyDescent="0.2">
       <c r="A254" s="7">
         <v>253</v>
       </c>
@@ -15673,7 +15700,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="255" spans="1:17" ht="170" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:22" ht="170" x14ac:dyDescent="0.2">
       <c r="A255" s="7">
         <v>254</v>
       </c>
@@ -15712,7 +15739,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="256" spans="1:17" ht="170" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:22" ht="170" x14ac:dyDescent="0.2">
       <c r="A256" s="7">
         <v>255</v>
       </c>
@@ -15723,7 +15750,7 @@
         <v>488</v>
       </c>
       <c r="D256" s="7" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="E256" s="7" t="s">
         <v>33</v>
@@ -15750,6 +15777,9 @@
       <c r="Q256" s="10" t="s">
         <v>489</v>
       </c>
+      <c r="V256" s="12" t="s">
+        <v>990</v>
+      </c>
     </row>
     <row r="257" spans="1:22" ht="238" x14ac:dyDescent="0.2">
       <c r="A257" s="7">
@@ -15915,13 +15945,13 @@
         <v>496</v>
       </c>
       <c r="D261" s="7" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E261" s="7" t="s">
         <v>33</v>
       </c>
       <c r="G261" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M261" s="9" t="str" cm="1">
         <f t="array" ref="M261">PAGE_NAME(B261)</f>
@@ -15954,7 +15984,7 @@
         <v>496</v>
       </c>
       <c r="D262" s="7" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="E262" s="7" t="s">
         <v>33</v>
@@ -15981,6 +16011,9 @@
       <c r="Q262" s="10" t="s">
         <v>497</v>
       </c>
+      <c r="V262" s="12" t="s">
+        <v>991</v>
+      </c>
     </row>
     <row r="263" spans="1:22" ht="187" x14ac:dyDescent="0.2">
       <c r="A263" s="7">
@@ -16386,7 +16419,7 @@
         <v>517</v>
       </c>
       <c r="D273" s="7" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E273" s="7" t="s">
         <v>33</v>
@@ -23011,7 +23044,7 @@
         <v/>
       </c>
     </row>
-    <row r="449" spans="1:22" ht="34" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A449" s="7">
         <v>448</v>
       </c>
@@ -23047,7 +23080,7 @@
         <v/>
       </c>
     </row>
-    <row r="450" spans="1:22" ht="68" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A450" s="7">
         <v>449</v>
       </c>
@@ -23086,7 +23119,7 @@
         <v/>
       </c>
     </row>
-    <row r="451" spans="1:22" ht="85" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:16" ht="85" x14ac:dyDescent="0.2">
       <c r="A451" s="7">
         <v>450</v>
       </c>
@@ -23125,7 +23158,7 @@
         <v/>
       </c>
     </row>
-    <row r="452" spans="1:22" ht="102" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:16" ht="102" x14ac:dyDescent="0.2">
       <c r="A452" s="7">
         <v>451</v>
       </c>
@@ -23164,7 +23197,7 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="453" spans="1:22" ht="68" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A453" s="7">
         <v>452</v>
       </c>
@@ -23203,7 +23236,7 @@
         <v/>
       </c>
     </row>
-    <row r="454" spans="1:22" ht="68" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A454" s="7">
         <v>453</v>
       </c>
@@ -23242,7 +23275,7 @@
         <v/>
       </c>
     </row>
-    <row r="455" spans="1:22" ht="136" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:16" ht="136" x14ac:dyDescent="0.2">
       <c r="A455" s="7">
         <v>454</v>
       </c>
@@ -23281,7 +23314,7 @@
         <v/>
       </c>
     </row>
-    <row r="456" spans="1:22" ht="34" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A456" s="7">
         <v>455</v>
       </c>
@@ -23317,7 +23350,7 @@
         <v/>
       </c>
     </row>
-    <row r="457" spans="1:22" ht="51" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A457" s="7">
         <v>456</v>
       </c>
@@ -23353,7 +23386,7 @@
         <v/>
       </c>
     </row>
-    <row r="458" spans="1:22" ht="34" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A458" s="7">
         <v>457</v>
       </c>
@@ -23389,7 +23422,7 @@
         <v/>
       </c>
     </row>
-    <row r="459" spans="1:22" ht="102" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:16" ht="102" x14ac:dyDescent="0.2">
       <c r="A459" s="7">
         <v>458</v>
       </c>
@@ -23425,7 +23458,7 @@
         <v/>
       </c>
     </row>
-    <row r="460" spans="1:22" ht="85" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:16" ht="85" x14ac:dyDescent="0.2">
       <c r="A460" s="7">
         <v>459</v>
       </c>
@@ -23433,7 +23466,7 @@
         <v>819</v>
       </c>
       <c r="C460" s="8" t="s">
-        <v>820</v>
+        <v>993</v>
       </c>
       <c r="D460" s="7" t="s">
         <v>32</v>
@@ -23445,7 +23478,7 @@
         <v>1</v>
       </c>
       <c r="H460" s="12" t="s">
-        <v>821</v>
+        <v>999</v>
       </c>
       <c r="M460" s="9" t="str" cm="1">
         <f t="array" ref="M460">PAGE_NAME(B460)</f>
@@ -23463,19 +23496,16 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="V460" s="12" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="461" spans="1:22" ht="85" x14ac:dyDescent="0.2">
+    </row>
+    <row r="461" spans="1:16" ht="85" x14ac:dyDescent="0.2">
       <c r="A461" s="7">
         <v>460</v>
       </c>
       <c r="B461" s="52" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="C461" s="8" t="s">
-        <v>823</v>
+        <v>996</v>
       </c>
       <c r="D461" s="7" t="s">
         <v>32</v>
@@ -23487,7 +23517,7 @@
         <v>1</v>
       </c>
       <c r="H461" s="12" t="s">
-        <v>824</v>
+        <v>1000</v>
       </c>
       <c r="M461" s="9" t="str" cm="1">
         <f t="array" ref="M461">PAGE_NAME(B461)</f>
@@ -23505,11 +23535,8 @@
         <f>IF(ISNUMBER( SEARCH("server",#REF!)), "Server", IF(ISNUMBER( SEARCH("Server",#REF!)), "Server", IF(ISNUMBER( SEARCH("client",#REF!)), "Client", IF(ISNUMBER( SEARCH("Client",#REF!)), "Client", IF(ISNUMBER( SEARCH("US Core Responder",#REF!)), "Server", IF(ISNUMBER( SEARCH("US Core Requestor",#REF!)), "Client", ""))))))</f>
         <v/>
       </c>
-      <c r="V461" s="12" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="462" spans="1:22" ht="85" x14ac:dyDescent="0.2">
+    </row>
+    <row r="462" spans="1:16" ht="85" x14ac:dyDescent="0.2">
       <c r="A462" s="7">
         <v>461</v>
       </c>
@@ -23517,7 +23544,7 @@
         <v>819</v>
       </c>
       <c r="C462" s="8" t="s">
-        <v>825</v>
+        <v>994</v>
       </c>
       <c r="D462" s="7" t="s">
         <v>40</v>
@@ -23529,7 +23556,7 @@
         <v>1</v>
       </c>
       <c r="H462" s="12" t="s">
-        <v>826</v>
+        <v>1001</v>
       </c>
       <c r="M462" s="9" t="str" cm="1">
         <f t="array" ref="M462">PAGE_NAME(B462)</f>
@@ -23547,19 +23574,16 @@
         <f>IF(ISNUMBER(SEARCH("server", C461)), "Server", IF(ISNUMBER(SEARCH("Server", C461)), "Server", IF(ISNUMBER(SEARCH("client", C461)), "Client", IF(ISNUMBER(SEARCH("Client", C461)), "Client", IF(ISNUMBER(SEARCH("US Core Responder", C461)), "Server", IF(ISNUMBER(SEARCH("US Core Requestor", C461)), "Client", ""))))))</f>
         <v/>
       </c>
-      <c r="V462" s="12" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="463" spans="1:22" ht="85" x14ac:dyDescent="0.2">
+    </row>
+    <row r="463" spans="1:16" ht="85" x14ac:dyDescent="0.2">
       <c r="A463" s="7">
         <v>462</v>
       </c>
       <c r="B463" s="52" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="C463" s="8" t="s">
-        <v>827</v>
+        <v>995</v>
       </c>
       <c r="D463" s="7" t="s">
         <v>40</v>
@@ -23571,7 +23595,7 @@
         <v>1</v>
       </c>
       <c r="H463" s="12" t="s">
-        <v>824</v>
+        <v>1000</v>
       </c>
       <c r="M463" s="9" t="str" cm="1">
         <f t="array" ref="M463">PAGE_NAME(B463)</f>
@@ -23589,11 +23613,8 @@
         <f t="shared" ref="P463:P494" si="20">IF(ISNUMBER(SEARCH("server", C463)), "Server", IF(ISNUMBER(SEARCH("Server", C463)), "Server", IF(ISNUMBER(SEARCH("client", C463)), "Client", IF(ISNUMBER(SEARCH("Client", C463)), "Client", IF(ISNUMBER(SEARCH("US Core Responder", C463)), "Server", IF(ISNUMBER(SEARCH("US Core Requestor", C463)), "Client", ""))))))</f>
         <v/>
       </c>
-      <c r="V463" s="12" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="464" spans="1:22" ht="85" x14ac:dyDescent="0.2">
+    </row>
+    <row r="464" spans="1:16" ht="85" x14ac:dyDescent="0.2">
       <c r="A464" s="7">
         <v>463</v>
       </c>
@@ -23601,7 +23622,7 @@
         <v>819</v>
       </c>
       <c r="C464" s="8" t="s">
-        <v>825</v>
+        <v>997</v>
       </c>
       <c r="D464" s="7" t="s">
         <v>32</v>
@@ -23613,7 +23634,7 @@
         <v>1</v>
       </c>
       <c r="H464" s="12" t="s">
-        <v>826</v>
+        <v>1001</v>
       </c>
       <c r="M464" s="9" t="str" cm="1">
         <f t="array" ref="M464">PAGE_NAME(B464)</f>
@@ -23631,19 +23652,16 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="V464" s="12" t="s">
-        <v>700</v>
-      </c>
     </row>
     <row r="465" spans="1:22" ht="85" x14ac:dyDescent="0.2">
       <c r="A465" s="7">
         <v>464</v>
       </c>
       <c r="B465" s="52" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="C465" s="8" t="s">
-        <v>827</v>
+        <v>998</v>
       </c>
       <c r="D465" s="7" t="s">
         <v>32</v>
@@ -23655,7 +23673,7 @@
         <v>1</v>
       </c>
       <c r="H465" s="12" t="s">
-        <v>824</v>
+        <v>1000</v>
       </c>
       <c r="M465" s="9" t="str" cm="1">
         <f t="array" ref="M465">PAGE_NAME(B465)</f>
@@ -23673,19 +23691,16 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="V465" s="12" t="s">
-        <v>700</v>
-      </c>
     </row>
     <row r="466" spans="1:22" ht="102" x14ac:dyDescent="0.2">
       <c r="A466" s="7">
         <v>465</v>
       </c>
       <c r="B466" s="52" t="s">
-        <v>828</v>
+        <v>821</v>
       </c>
       <c r="C466" s="8" t="s">
-        <v>829</v>
+        <v>992</v>
       </c>
       <c r="D466" s="7" t="s">
         <v>32</v>
@@ -23694,7 +23709,7 @@
         <v>33</v>
       </c>
       <c r="H466" s="12" t="s">
-        <v>830</v>
+        <v>1002</v>
       </c>
       <c r="M466" s="9" t="str" cm="1">
         <f t="array" ref="M466">PAGE_NAME(B466)</f>
@@ -23713,7 +23728,7 @@
         <v/>
       </c>
       <c r="U466" s="12" t="s">
-        <v>831</v>
+        <v>822</v>
       </c>
       <c r="V466" s="12" t="s">
         <v>700</v>
@@ -23724,10 +23739,10 @@
         <v>466</v>
       </c>
       <c r="B467" s="52" t="s">
-        <v>828</v>
+        <v>821</v>
       </c>
       <c r="C467" s="8" t="s">
-        <v>832</v>
+        <v>823</v>
       </c>
       <c r="D467" s="7" t="s">
         <v>36</v>
@@ -23739,7 +23754,7 @@
         <v>1</v>
       </c>
       <c r="H467" s="12" t="s">
-        <v>833</v>
+        <v>824</v>
       </c>
       <c r="O467" s="10" t="str">
         <f t="shared" si="19"/>
@@ -23755,10 +23770,10 @@
         <v>467</v>
       </c>
       <c r="B468" s="52" t="s">
-        <v>828</v>
+        <v>821</v>
       </c>
       <c r="C468" s="8" t="s">
-        <v>834</v>
+        <v>825</v>
       </c>
       <c r="D468" s="7" t="s">
         <v>36</v>
@@ -23770,7 +23785,7 @@
         <v>1</v>
       </c>
       <c r="H468" s="12" t="s">
-        <v>835</v>
+        <v>826</v>
       </c>
       <c r="M468" s="9" t="str" cm="1">
         <f t="array" ref="M468">PAGE_NAME(B468)</f>
@@ -23794,10 +23809,10 @@
         <v>468</v>
       </c>
       <c r="B469" s="52" t="s">
-        <v>828</v>
+        <v>821</v>
       </c>
       <c r="C469" s="8" t="s">
-        <v>836</v>
+        <v>827</v>
       </c>
       <c r="D469" s="7" t="s">
         <v>40</v>
@@ -23830,10 +23845,10 @@
         <v>469</v>
       </c>
       <c r="B470" s="52" t="s">
+        <v>821</v>
+      </c>
+      <c r="C470" s="8" t="s">
         <v>828</v>
-      </c>
-      <c r="C470" s="8" t="s">
-        <v>837</v>
       </c>
       <c r="D470" s="7" t="s">
         <v>32</v>
@@ -23861,7 +23876,7 @@
         <v/>
       </c>
       <c r="V470" s="12" t="s">
-        <v>838</v>
+        <v>829</v>
       </c>
     </row>
     <row r="471" spans="1:22" ht="136" x14ac:dyDescent="0.2">
@@ -23869,10 +23884,10 @@
         <v>470</v>
       </c>
       <c r="B471" s="52" t="s">
-        <v>828</v>
+        <v>821</v>
       </c>
       <c r="C471" s="8" t="s">
-        <v>839</v>
+        <v>830</v>
       </c>
       <c r="D471" s="7" t="s">
         <v>36</v>
@@ -23905,10 +23920,10 @@
         <v>471</v>
       </c>
       <c r="B472" s="52" t="s">
-        <v>828</v>
+        <v>821</v>
       </c>
       <c r="C472" s="8" t="s">
-        <v>840</v>
+        <v>831</v>
       </c>
       <c r="D472" s="7" t="s">
         <v>40</v>
@@ -23920,7 +23935,7 @@
         <v>1</v>
       </c>
       <c r="H472" s="12" t="s">
-        <v>841</v>
+        <v>832</v>
       </c>
       <c r="M472" s="9" t="str" cm="1">
         <f t="array" ref="M472">PAGE_NAME(B472)</f>
@@ -23947,10 +23962,10 @@
         <v>472</v>
       </c>
       <c r="B473" s="52" t="s">
-        <v>828</v>
+        <v>821</v>
       </c>
       <c r="C473" s="8" t="s">
-        <v>842</v>
+        <v>833</v>
       </c>
       <c r="D473" s="7" t="s">
         <v>101</v>
@@ -23983,10 +23998,10 @@
         <v>473</v>
       </c>
       <c r="B474" s="52" t="s">
-        <v>843</v>
+        <v>834</v>
       </c>
       <c r="C474" s="8" t="s">
-        <v>844</v>
+        <v>835</v>
       </c>
       <c r="D474" s="7" t="s">
         <v>32</v>
@@ -23998,7 +24013,7 @@
         <v>1</v>
       </c>
       <c r="H474" s="12" t="s">
-        <v>845</v>
+        <v>836</v>
       </c>
       <c r="M474" s="9" t="str" cm="1">
         <f t="array" ref="M474">PAGE_NAME(B474)</f>
@@ -24022,10 +24037,10 @@
         <v>474</v>
       </c>
       <c r="B475" s="52" t="s">
-        <v>843</v>
+        <v>834</v>
       </c>
       <c r="C475" s="8" t="s">
-        <v>846</v>
+        <v>837</v>
       </c>
       <c r="D475" s="7" t="s">
         <v>40</v>
@@ -24037,7 +24052,7 @@
         <v>1</v>
       </c>
       <c r="H475" s="12" t="s">
-        <v>847</v>
+        <v>838</v>
       </c>
       <c r="M475" s="9" t="str" cm="1">
         <f t="array" ref="M475">PAGE_NAME(B475)</f>
@@ -24061,10 +24076,10 @@
         <v>475</v>
       </c>
       <c r="B476" s="52" t="s">
-        <v>843</v>
+        <v>834</v>
       </c>
       <c r="C476" s="8" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="D476" s="7" t="s">
         <v>32</v>
@@ -24076,7 +24091,7 @@
         <v>1</v>
       </c>
       <c r="H476" s="12" t="s">
-        <v>849</v>
+        <v>840</v>
       </c>
       <c r="M476" s="9" t="str" cm="1">
         <f t="array" ref="M476">PAGE_NAME(B476)</f>
@@ -24100,10 +24115,10 @@
         <v>476</v>
       </c>
       <c r="B477" s="52" t="s">
-        <v>843</v>
+        <v>834</v>
       </c>
       <c r="C477" s="8" t="s">
-        <v>850</v>
+        <v>841</v>
       </c>
       <c r="D477" s="7" t="s">
         <v>32</v>
@@ -24133,10 +24148,10 @@
         <v>477</v>
       </c>
       <c r="B478" s="52" t="s">
-        <v>843</v>
+        <v>834</v>
       </c>
       <c r="C478" s="8" t="s">
-        <v>851</v>
+        <v>842</v>
       </c>
       <c r="D478" s="7" t="s">
         <v>36</v>
@@ -24169,10 +24184,10 @@
         <v>478</v>
       </c>
       <c r="B479" s="52" t="s">
+        <v>834</v>
+      </c>
+      <c r="C479" s="8" t="s">
         <v>843</v>
-      </c>
-      <c r="C479" s="8" t="s">
-        <v>852</v>
       </c>
       <c r="D479" s="7" t="s">
         <v>36</v>
@@ -24205,10 +24220,10 @@
         <v>479</v>
       </c>
       <c r="B480" s="52" t="s">
-        <v>853</v>
+        <v>844</v>
       </c>
       <c r="C480" s="8" t="s">
-        <v>854</v>
+        <v>845</v>
       </c>
       <c r="D480" s="7" t="s">
         <v>40</v>
@@ -24241,10 +24256,10 @@
         <v>480</v>
       </c>
       <c r="B481" s="52" t="s">
-        <v>853</v>
+        <v>844</v>
       </c>
       <c r="C481" s="8" t="s">
-        <v>855</v>
+        <v>846</v>
       </c>
       <c r="D481" s="7" t="s">
         <v>36</v>
@@ -24256,7 +24271,7 @@
         <v>1</v>
       </c>
       <c r="H481" s="12" t="s">
-        <v>856</v>
+        <v>847</v>
       </c>
       <c r="M481" s="9" t="str" cm="1">
         <f t="array" ref="M481">PAGE_NAME(B481)</f>
@@ -24280,10 +24295,10 @@
         <v>481</v>
       </c>
       <c r="B482" s="52" t="s">
-        <v>853</v>
+        <v>844</v>
       </c>
       <c r="C482" s="8" t="s">
-        <v>857</v>
+        <v>848</v>
       </c>
       <c r="D482" s="7" t="s">
         <v>36</v>
@@ -24316,10 +24331,10 @@
         <v>482</v>
       </c>
       <c r="B483" s="52" t="s">
-        <v>853</v>
+        <v>844</v>
       </c>
       <c r="C483" s="8" t="s">
-        <v>858</v>
+        <v>849</v>
       </c>
       <c r="D483" s="7" t="s">
         <v>32</v>
@@ -24331,7 +24346,7 @@
         <v>1</v>
       </c>
       <c r="H483" s="12" t="s">
-        <v>859</v>
+        <v>850</v>
       </c>
       <c r="M483" s="9" t="str" cm="1">
         <f t="array" ref="M483">PAGE_NAME(B483)</f>
@@ -24358,10 +24373,10 @@
         <v>483</v>
       </c>
       <c r="B484" s="52" t="s">
-        <v>853</v>
+        <v>844</v>
       </c>
       <c r="C484" s="8" t="s">
-        <v>860</v>
+        <v>851</v>
       </c>
       <c r="D484" s="7" t="s">
         <v>32</v>
@@ -24373,7 +24388,7 @@
         <v>1</v>
       </c>
       <c r="H484" s="12" t="s">
-        <v>859</v>
+        <v>850</v>
       </c>
       <c r="M484" s="9" t="str" cm="1">
         <f t="array" ref="M484">PAGE_NAME(B484)</f>
@@ -24400,10 +24415,10 @@
         <v>484</v>
       </c>
       <c r="B485" s="52" t="s">
-        <v>853</v>
+        <v>844</v>
       </c>
       <c r="C485" s="8" t="s">
-        <v>861</v>
+        <v>852</v>
       </c>
       <c r="D485" s="7" t="s">
         <v>32</v>
@@ -24415,7 +24430,7 @@
         <v>1</v>
       </c>
       <c r="H485" s="12" t="s">
-        <v>862</v>
+        <v>853</v>
       </c>
       <c r="M485" s="9" t="str" cm="1">
         <f t="array" ref="M485">PAGE_NAME(B485)</f>
@@ -24442,10 +24457,10 @@
         <v>485</v>
       </c>
       <c r="B486" s="52" t="s">
-        <v>853</v>
+        <v>844</v>
       </c>
       <c r="C486" s="8" t="s">
-        <v>863</v>
+        <v>854</v>
       </c>
       <c r="D486" s="7" t="s">
         <v>32</v>
@@ -24457,7 +24472,7 @@
         <v>1</v>
       </c>
       <c r="H486" s="12" t="s">
-        <v>859</v>
+        <v>850</v>
       </c>
       <c r="M486" s="9" t="str" cm="1">
         <f t="array" ref="M486">PAGE_NAME(B486)</f>
@@ -24484,10 +24499,10 @@
         <v>486</v>
       </c>
       <c r="B487" s="52" t="s">
-        <v>853</v>
+        <v>844</v>
       </c>
       <c r="C487" s="8" t="s">
-        <v>864</v>
+        <v>855</v>
       </c>
       <c r="D487" s="7" t="s">
         <v>32</v>
@@ -24499,7 +24514,7 @@
         <v>1</v>
       </c>
       <c r="H487" s="12" t="s">
-        <v>865</v>
+        <v>856</v>
       </c>
       <c r="M487" s="9" t="str" cm="1">
         <f t="array" ref="M487">PAGE_NAME(B487)</f>
@@ -24526,10 +24541,10 @@
         <v>487</v>
       </c>
       <c r="B488" s="52" t="s">
-        <v>853</v>
+        <v>844</v>
       </c>
       <c r="C488" s="8" t="s">
-        <v>866</v>
+        <v>857</v>
       </c>
       <c r="D488" s="7" t="s">
         <v>32</v>
@@ -24541,7 +24556,7 @@
         <v>1</v>
       </c>
       <c r="H488" s="12" t="s">
-        <v>865</v>
+        <v>856</v>
       </c>
       <c r="M488" s="9" t="str" cm="1">
         <f t="array" ref="M488">PAGE_NAME(B488)</f>
@@ -24568,10 +24583,10 @@
         <v>488</v>
       </c>
       <c r="B489" s="52" t="s">
-        <v>853</v>
+        <v>844</v>
       </c>
       <c r="C489" s="8" t="s">
-        <v>867</v>
+        <v>858</v>
       </c>
       <c r="D489" s="7" t="s">
         <v>36</v>
@@ -24583,7 +24598,7 @@
         <v>1</v>
       </c>
       <c r="H489" s="12" t="s">
-        <v>865</v>
+        <v>856</v>
       </c>
       <c r="M489" s="9" t="str" cm="1">
         <f t="array" ref="M489">PAGE_NAME(B489)</f>
@@ -24610,10 +24625,10 @@
         <v>489</v>
       </c>
       <c r="B490" s="52" t="s">
-        <v>868</v>
+        <v>859</v>
       </c>
       <c r="C490" s="8" t="s">
-        <v>869</v>
+        <v>860</v>
       </c>
       <c r="D490" s="7" t="s">
         <v>32</v>
@@ -24646,10 +24661,10 @@
         <v>490</v>
       </c>
       <c r="B491" s="52" t="s">
-        <v>868</v>
+        <v>859</v>
       </c>
       <c r="C491" s="8" t="s">
-        <v>870</v>
+        <v>861</v>
       </c>
       <c r="D491" s="7" t="s">
         <v>32</v>
@@ -24682,10 +24697,10 @@
         <v>491</v>
       </c>
       <c r="B492" s="52" t="s">
-        <v>868</v>
+        <v>859</v>
       </c>
       <c r="C492" s="8" t="s">
-        <v>871</v>
+        <v>862</v>
       </c>
       <c r="D492" s="7" t="s">
         <v>32</v>
@@ -24718,10 +24733,10 @@
         <v>492</v>
       </c>
       <c r="B493" s="52" t="s">
-        <v>868</v>
+        <v>859</v>
       </c>
       <c r="C493" s="8" t="s">
-        <v>872</v>
+        <v>863</v>
       </c>
       <c r="D493" s="7" t="s">
         <v>32</v>
@@ -24754,10 +24769,10 @@
         <v>493</v>
       </c>
       <c r="B494" s="52" t="s">
-        <v>868</v>
+        <v>859</v>
       </c>
       <c r="C494" s="8" t="s">
-        <v>873</v>
+        <v>864</v>
       </c>
       <c r="D494" s="7" t="s">
         <v>32</v>
@@ -24790,10 +24805,10 @@
         <v>494</v>
       </c>
       <c r="B495" s="52" t="s">
-        <v>868</v>
+        <v>859</v>
       </c>
       <c r="C495" s="8" t="s">
-        <v>874</v>
+        <v>865</v>
       </c>
       <c r="D495" s="7" t="s">
         <v>32</v>
@@ -24826,10 +24841,10 @@
         <v>495</v>
       </c>
       <c r="B496" s="52" t="s">
-        <v>868</v>
+        <v>859</v>
       </c>
       <c r="C496" s="8" t="s">
-        <v>875</v>
+        <v>866</v>
       </c>
       <c r="D496" s="7" t="s">
         <v>32</v>
@@ -24862,10 +24877,10 @@
         <v>496</v>
       </c>
       <c r="B497" s="52" t="s">
-        <v>868</v>
+        <v>859</v>
       </c>
       <c r="C497" s="8" t="s">
-        <v>876</v>
+        <v>867</v>
       </c>
       <c r="D497" s="7" t="s">
         <v>32</v>
@@ -24898,10 +24913,10 @@
         <v>497</v>
       </c>
       <c r="B498" s="52" t="s">
+        <v>859</v>
+      </c>
+      <c r="C498" s="8" t="s">
         <v>868</v>
-      </c>
-      <c r="C498" s="8" t="s">
-        <v>877</v>
       </c>
       <c r="D498" s="7" t="s">
         <v>32</v>
@@ -24934,10 +24949,10 @@
         <v>498</v>
       </c>
       <c r="B499" s="52" t="s">
-        <v>868</v>
+        <v>859</v>
       </c>
       <c r="C499" s="8" t="s">
-        <v>878</v>
+        <v>869</v>
       </c>
       <c r="D499" s="7" t="s">
         <v>32</v>
@@ -24970,10 +24985,10 @@
         <v>499</v>
       </c>
       <c r="B500" s="52" t="s">
-        <v>868</v>
+        <v>859</v>
       </c>
       <c r="C500" s="8" t="s">
-        <v>879</v>
+        <v>870</v>
       </c>
       <c r="D500" s="7" t="s">
         <v>32</v>
@@ -25006,10 +25021,10 @@
         <v>500</v>
       </c>
       <c r="B501" s="52" t="s">
-        <v>868</v>
+        <v>859</v>
       </c>
       <c r="C501" s="8" t="s">
-        <v>880</v>
+        <v>871</v>
       </c>
       <c r="D501" s="7" t="s">
         <v>32</v>
@@ -25042,10 +25057,10 @@
         <v>501</v>
       </c>
       <c r="B502" s="52" t="s">
-        <v>868</v>
+        <v>859</v>
       </c>
       <c r="C502" s="8" t="s">
-        <v>881</v>
+        <v>872</v>
       </c>
       <c r="D502" s="7" t="s">
         <v>32</v>
@@ -25078,10 +25093,10 @@
         <v>502</v>
       </c>
       <c r="B503" s="52" t="s">
-        <v>868</v>
+        <v>859</v>
       </c>
       <c r="C503" s="8" t="s">
-        <v>882</v>
+        <v>873</v>
       </c>
       <c r="D503" s="7" t="s">
         <v>32</v>
@@ -25114,10 +25129,10 @@
         <v>503</v>
       </c>
       <c r="B504" s="52" t="s">
-        <v>868</v>
+        <v>859</v>
       </c>
       <c r="C504" s="8" t="s">
-        <v>883</v>
+        <v>874</v>
       </c>
       <c r="D504" s="7" t="s">
         <v>32</v>
@@ -25150,10 +25165,10 @@
         <v>504</v>
       </c>
       <c r="B505" s="52" t="s">
-        <v>868</v>
+        <v>859</v>
       </c>
       <c r="C505" s="8" t="s">
-        <v>884</v>
+        <v>875</v>
       </c>
       <c r="D505" s="7" t="s">
         <v>32</v>
@@ -25186,10 +25201,10 @@
         <v>505</v>
       </c>
       <c r="B506" s="52" t="s">
-        <v>868</v>
+        <v>859</v>
       </c>
       <c r="C506" s="8" t="s">
-        <v>885</v>
+        <v>876</v>
       </c>
       <c r="D506" s="7" t="s">
         <v>32</v>
@@ -25222,10 +25237,10 @@
         <v>506</v>
       </c>
       <c r="B507" s="52" t="s">
-        <v>868</v>
+        <v>859</v>
       </c>
       <c r="C507" s="8" t="s">
-        <v>886</v>
+        <v>877</v>
       </c>
       <c r="D507" s="7" t="s">
         <v>32</v>
@@ -25258,10 +25273,10 @@
         <v>507</v>
       </c>
       <c r="B508" s="52" t="s">
-        <v>868</v>
+        <v>859</v>
       </c>
       <c r="C508" s="8" t="s">
-        <v>887</v>
+        <v>878</v>
       </c>
       <c r="D508" s="7" t="s">
         <v>32</v>
@@ -25294,10 +25309,10 @@
         <v>508</v>
       </c>
       <c r="B509" s="52" t="s">
-        <v>868</v>
+        <v>859</v>
       </c>
       <c r="C509" s="8" t="s">
-        <v>888</v>
+        <v>879</v>
       </c>
       <c r="D509" s="7" t="s">
         <v>32</v>
@@ -25309,7 +25324,7 @@
         <v>1</v>
       </c>
       <c r="H509" s="12" t="s">
-        <v>889</v>
+        <v>880</v>
       </c>
       <c r="M509" s="9" t="str" cm="1">
         <f t="array" ref="M509">PAGE_NAME(B509)</f>
@@ -25333,13 +25348,13 @@
         <v>509</v>
       </c>
       <c r="B510" s="52" t="s">
-        <v>868</v>
+        <v>859</v>
       </c>
       <c r="C510" s="8" t="s">
-        <v>890</v>
+        <v>881</v>
       </c>
       <c r="D510" s="7" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="E510" s="7" t="s">
         <v>33</v>
@@ -25348,7 +25363,7 @@
         <v>1</v>
       </c>
       <c r="H510" s="12" t="s">
-        <v>891</v>
+        <v>882</v>
       </c>
       <c r="M510" s="9" t="str" cm="1">
         <f t="array" ref="M510">PAGE_NAME(B510)</f>
@@ -25372,10 +25387,10 @@
         <v>510</v>
       </c>
       <c r="B511" s="52" t="s">
-        <v>868</v>
+        <v>859</v>
       </c>
       <c r="C511" s="8" t="s">
-        <v>892</v>
+        <v>883</v>
       </c>
       <c r="D511" s="7" t="s">
         <v>36</v>
@@ -25408,10 +25423,10 @@
         <v>511</v>
       </c>
       <c r="B512" s="52" t="s">
-        <v>893</v>
+        <v>884</v>
       </c>
       <c r="C512" s="8" t="s">
-        <v>894</v>
+        <v>885</v>
       </c>
       <c r="D512" s="7" t="s">
         <v>32</v>
@@ -25423,7 +25438,7 @@
         <v>1</v>
       </c>
       <c r="H512" s="12" t="s">
-        <v>895</v>
+        <v>886</v>
       </c>
       <c r="M512" s="9" t="str" cm="1">
         <f t="array" ref="M512">PAGE_NAME(B512)</f>
@@ -25447,10 +25462,10 @@
         <v>512</v>
       </c>
       <c r="B513" s="52" t="s">
-        <v>893</v>
+        <v>884</v>
       </c>
       <c r="C513" s="8" t="s">
-        <v>896</v>
+        <v>887</v>
       </c>
       <c r="D513" s="7" t="s">
         <v>40</v>
@@ -25462,7 +25477,7 @@
         <v>1</v>
       </c>
       <c r="H513" s="12" t="s">
-        <v>895</v>
+        <v>886</v>
       </c>
       <c r="M513" s="9" t="str" cm="1">
         <f t="array" ref="M513">PAGE_NAME(B513)</f>
@@ -25486,10 +25501,10 @@
         <v>513</v>
       </c>
       <c r="B514" s="52" t="s">
-        <v>897</v>
+        <v>888</v>
       </c>
       <c r="C514" s="8" t="s">
-        <v>898</v>
+        <v>889</v>
       </c>
       <c r="D514" s="7" t="s">
         <v>36</v>
@@ -25522,10 +25537,10 @@
         <v>514</v>
       </c>
       <c r="B515" s="52" t="s">
-        <v>899</v>
+        <v>890</v>
       </c>
       <c r="C515" s="8" t="s">
-        <v>900</v>
+        <v>891</v>
       </c>
       <c r="D515" s="7" t="s">
         <v>40</v>
@@ -25558,10 +25573,10 @@
         <v>515</v>
       </c>
       <c r="B516" s="52" t="s">
-        <v>899</v>
+        <v>890</v>
       </c>
       <c r="C516" s="8" t="s">
-        <v>901</v>
+        <v>892</v>
       </c>
       <c r="D516" s="7" t="s">
         <v>36</v>
@@ -25594,10 +25609,10 @@
         <v>516</v>
       </c>
       <c r="B517" s="52" t="s">
-        <v>899</v>
+        <v>890</v>
       </c>
       <c r="C517" s="8" t="s">
-        <v>902</v>
+        <v>893</v>
       </c>
       <c r="D517" s="7" t="s">
         <v>32</v>
@@ -25609,7 +25624,7 @@
         <v>1</v>
       </c>
       <c r="H517" s="12" t="s">
-        <v>859</v>
+        <v>850</v>
       </c>
       <c r="M517" s="9" t="str" cm="1">
         <f t="array" ref="M517">PAGE_NAME(B517)</f>
@@ -25636,10 +25651,10 @@
         <v>517</v>
       </c>
       <c r="B518" s="52" t="s">
-        <v>899</v>
+        <v>890</v>
       </c>
       <c r="C518" s="8" t="s">
-        <v>903</v>
+        <v>894</v>
       </c>
       <c r="D518" s="7" t="s">
         <v>32</v>
@@ -25651,7 +25666,7 @@
         <v>1</v>
       </c>
       <c r="H518" s="12" t="s">
-        <v>859</v>
+        <v>850</v>
       </c>
       <c r="M518" s="9" t="str" cm="1">
         <f t="array" ref="M518">PAGE_NAME(B518)</f>
@@ -25678,10 +25693,10 @@
         <v>518</v>
       </c>
       <c r="B519" s="52" t="s">
-        <v>899</v>
+        <v>890</v>
       </c>
       <c r="C519" s="8" t="s">
-        <v>904</v>
+        <v>895</v>
       </c>
       <c r="D519" s="7" t="s">
         <v>32</v>
@@ -25693,7 +25708,7 @@
         <v>1</v>
       </c>
       <c r="H519" s="12" t="s">
-        <v>862</v>
+        <v>853</v>
       </c>
       <c r="M519" s="9" t="str" cm="1">
         <f t="array" ref="M519">PAGE_NAME(B519)</f>
@@ -25720,10 +25735,10 @@
         <v>519</v>
       </c>
       <c r="B520" s="52" t="s">
-        <v>899</v>
+        <v>890</v>
       </c>
       <c r="C520" s="8" t="s">
-        <v>905</v>
+        <v>896</v>
       </c>
       <c r="D520" s="7" t="s">
         <v>32</v>
@@ -25735,7 +25750,7 @@
         <v>1</v>
       </c>
       <c r="H520" s="12" t="s">
-        <v>859</v>
+        <v>850</v>
       </c>
       <c r="M520" s="9" t="str" cm="1">
         <f t="array" ref="M520">PAGE_NAME(B520)</f>
@@ -25762,10 +25777,10 @@
         <v>520</v>
       </c>
       <c r="B521" s="52" t="s">
-        <v>899</v>
+        <v>890</v>
       </c>
       <c r="C521" s="8" t="s">
-        <v>906</v>
+        <v>897</v>
       </c>
       <c r="D521" s="7" t="s">
         <v>32</v>
@@ -25777,7 +25792,7 @@
         <v>1</v>
       </c>
       <c r="H521" s="12" t="s">
-        <v>865</v>
+        <v>856</v>
       </c>
       <c r="M521" s="9" t="str" cm="1">
         <f t="array" ref="M521">PAGE_NAME(B521)</f>
@@ -25804,10 +25819,10 @@
         <v>521</v>
       </c>
       <c r="B522" s="52" t="s">
-        <v>899</v>
+        <v>890</v>
       </c>
       <c r="C522" s="8" t="s">
-        <v>907</v>
+        <v>898</v>
       </c>
       <c r="D522" s="7" t="s">
         <v>32</v>
@@ -25819,7 +25834,7 @@
         <v>1</v>
       </c>
       <c r="H522" s="12" t="s">
-        <v>865</v>
+        <v>856</v>
       </c>
       <c r="M522" s="9" t="str" cm="1">
         <f t="array" ref="M522">PAGE_NAME(B522)</f>
@@ -25846,10 +25861,10 @@
         <v>522</v>
       </c>
       <c r="B523" s="52" t="s">
+        <v>890</v>
+      </c>
+      <c r="C523" s="8" t="s">
         <v>899</v>
-      </c>
-      <c r="C523" s="8" t="s">
-        <v>908</v>
       </c>
       <c r="D523" s="7" t="s">
         <v>36</v>
@@ -25861,7 +25876,7 @@
         <v>1</v>
       </c>
       <c r="H523" s="12" t="s">
-        <v>865</v>
+        <v>856</v>
       </c>
       <c r="M523" s="9" t="str" cm="1">
         <f t="array" ref="M523">PAGE_NAME(B523)</f>
@@ -25888,10 +25903,10 @@
         <v>523</v>
       </c>
       <c r="B524" s="52" t="s">
-        <v>909</v>
+        <v>900</v>
       </c>
       <c r="C524" s="8" t="s">
-        <v>910</v>
+        <v>901</v>
       </c>
       <c r="D524" s="7" t="s">
         <v>40</v>
@@ -25924,10 +25939,10 @@
         <v>524</v>
       </c>
       <c r="B525" s="52" t="s">
-        <v>909</v>
+        <v>900</v>
       </c>
       <c r="C525" s="8" t="s">
-        <v>911</v>
+        <v>902</v>
       </c>
       <c r="D525" s="7" t="s">
         <v>32</v>
@@ -25939,7 +25954,7 @@
         <v>1</v>
       </c>
       <c r="H525" s="12" t="s">
-        <v>912</v>
+        <v>903</v>
       </c>
       <c r="M525" s="9" t="str" cm="1">
         <f t="array" ref="M525">PAGE_NAME(B525)</f>
@@ -25963,10 +25978,10 @@
         <v>525</v>
       </c>
       <c r="B526" s="52" t="s">
-        <v>909</v>
+        <v>900</v>
       </c>
       <c r="C526" s="8" t="s">
-        <v>913</v>
+        <v>904</v>
       </c>
       <c r="D526" s="7" t="s">
         <v>32</v>
@@ -25999,10 +26014,10 @@
         <v>526</v>
       </c>
       <c r="B527" s="52" t="s">
-        <v>909</v>
+        <v>900</v>
       </c>
       <c r="C527" s="8" t="s">
-        <v>914</v>
+        <v>905</v>
       </c>
       <c r="D527" s="7" t="s">
         <v>40</v>
@@ -26035,10 +26050,10 @@
         <v>527</v>
       </c>
       <c r="B528" s="52" t="s">
-        <v>915</v>
+        <v>906</v>
       </c>
       <c r="C528" s="8" t="s">
-        <v>916</v>
+        <v>907</v>
       </c>
       <c r="D528" s="7" t="s">
         <v>36</v>
@@ -26071,10 +26086,10 @@
         <v>528</v>
       </c>
       <c r="B529" s="52" t="s">
-        <v>917</v>
+        <v>908</v>
       </c>
       <c r="C529" s="8" t="s">
-        <v>918</v>
+        <v>909</v>
       </c>
       <c r="D529" s="7" t="s">
         <v>40</v>
@@ -26107,10 +26122,10 @@
         <v>529</v>
       </c>
       <c r="B530" s="52" t="s">
-        <v>917</v>
+        <v>908</v>
       </c>
       <c r="C530" s="8" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
       <c r="D530" s="7" t="s">
         <v>40</v>
@@ -26143,10 +26158,10 @@
         <v>530</v>
       </c>
       <c r="B531" s="52" t="s">
-        <v>917</v>
+        <v>908</v>
       </c>
       <c r="C531" s="8" t="s">
-        <v>920</v>
+        <v>911</v>
       </c>
       <c r="D531" s="7" t="s">
         <v>40</v>
@@ -26179,10 +26194,10 @@
         <v>531</v>
       </c>
       <c r="B532" s="52" t="s">
-        <v>917</v>
+        <v>908</v>
       </c>
       <c r="C532" s="8" t="s">
-        <v>921</v>
+        <v>912</v>
       </c>
       <c r="D532" s="7" t="s">
         <v>40</v>
@@ -26215,10 +26230,10 @@
         <v>532</v>
       </c>
       <c r="B533" s="52" t="s">
-        <v>922</v>
+        <v>913</v>
       </c>
       <c r="C533" s="8" t="s">
-        <v>923</v>
+        <v>914</v>
       </c>
       <c r="D533" s="7" t="s">
         <v>36</v>
@@ -26251,10 +26266,10 @@
         <v>533</v>
       </c>
       <c r="B534" s="52" t="s">
-        <v>924</v>
+        <v>915</v>
       </c>
       <c r="C534" s="8" t="s">
-        <v>925</v>
+        <v>916</v>
       </c>
       <c r="D534" s="7" t="s">
         <v>32</v>
@@ -26287,10 +26302,10 @@
         <v>534</v>
       </c>
       <c r="B535" s="52" t="s">
-        <v>924</v>
+        <v>915</v>
       </c>
       <c r="C535" s="8" t="s">
-        <v>926</v>
+        <v>917</v>
       </c>
       <c r="D535" s="7" t="s">
         <v>32</v>
@@ -26315,10 +26330,10 @@
         <v>535</v>
       </c>
       <c r="B536" s="52" t="s">
-        <v>924</v>
+        <v>915</v>
       </c>
       <c r="C536" s="8" t="s">
-        <v>927</v>
+        <v>918</v>
       </c>
       <c r="D536" s="7" t="s">
         <v>32</v>
@@ -26343,10 +26358,10 @@
         <v>536</v>
       </c>
       <c r="B537" s="52" t="s">
-        <v>924</v>
+        <v>915</v>
       </c>
       <c r="C537" s="8" t="s">
-        <v>928</v>
+        <v>919</v>
       </c>
       <c r="D537" s="7" t="s">
         <v>32</v>
@@ -26371,10 +26386,10 @@
         <v>537</v>
       </c>
       <c r="B538" s="52" t="s">
-        <v>924</v>
+        <v>915</v>
       </c>
       <c r="C538" s="8" t="s">
-        <v>929</v>
+        <v>920</v>
       </c>
       <c r="D538" s="7" t="s">
         <v>32</v>
@@ -26399,10 +26414,10 @@
         <v>538</v>
       </c>
       <c r="B539" s="52" t="s">
-        <v>924</v>
+        <v>915</v>
       </c>
       <c r="C539" s="8" t="s">
-        <v>930</v>
+        <v>921</v>
       </c>
       <c r="D539" s="7" t="s">
         <v>32</v>
@@ -26427,10 +26442,10 @@
         <v>539</v>
       </c>
       <c r="B540" s="52" t="s">
-        <v>924</v>
+        <v>915</v>
       </c>
       <c r="C540" s="8" t="s">
-        <v>931</v>
+        <v>922</v>
       </c>
       <c r="D540" s="7" t="s">
         <v>32</v>
@@ -26455,10 +26470,10 @@
         <v>540</v>
       </c>
       <c r="B541" s="52" t="s">
-        <v>924</v>
+        <v>915</v>
       </c>
       <c r="C541" s="8" t="s">
-        <v>932</v>
+        <v>923</v>
       </c>
       <c r="D541" s="7" t="s">
         <v>32</v>
@@ -26483,10 +26498,10 @@
         <v>541</v>
       </c>
       <c r="B542" s="52" t="s">
+        <v>915</v>
+      </c>
+      <c r="C542" s="8" t="s">
         <v>924</v>
-      </c>
-      <c r="C542" s="8" t="s">
-        <v>933</v>
       </c>
       <c r="D542" s="7" t="s">
         <v>36</v>
@@ -26511,10 +26526,10 @@
         <v>542</v>
       </c>
       <c r="B543" s="52" t="s">
-        <v>924</v>
+        <v>915</v>
       </c>
       <c r="C543" s="8" t="s">
-        <v>934</v>
+        <v>925</v>
       </c>
       <c r="D543" s="7" t="s">
         <v>36</v>
@@ -26539,10 +26554,10 @@
         <v>543</v>
       </c>
       <c r="B544" s="52" t="s">
-        <v>924</v>
+        <v>915</v>
       </c>
       <c r="C544" s="8" t="s">
-        <v>935</v>
+        <v>926</v>
       </c>
       <c r="D544" s="7" t="s">
         <v>32</v>
@@ -26554,7 +26569,7 @@
         <v>1</v>
       </c>
       <c r="H544" s="12" t="s">
-        <v>936</v>
+        <v>927</v>
       </c>
       <c r="M544" s="9" t="str" cm="1">
         <f t="array" ref="M544">PAGE_NAME(B544)</f>
@@ -26570,10 +26585,10 @@
         <v>544</v>
       </c>
       <c r="B545" s="52" t="s">
-        <v>924</v>
+        <v>915</v>
       </c>
       <c r="C545" s="8" t="s">
-        <v>937</v>
+        <v>928</v>
       </c>
       <c r="D545" s="7" t="s">
         <v>40</v>
@@ -26598,10 +26613,10 @@
         <v>545</v>
       </c>
       <c r="B546" s="52" t="s">
-        <v>924</v>
+        <v>915</v>
       </c>
       <c r="C546" s="8" t="s">
-        <v>938</v>
+        <v>929</v>
       </c>
       <c r="D546" s="7" t="s">
         <v>40</v>
@@ -26626,10 +26641,10 @@
         <v>546</v>
       </c>
       <c r="B547" s="52" t="s">
-        <v>924</v>
+        <v>915</v>
       </c>
       <c r="C547" s="8" t="s">
-        <v>939</v>
+        <v>930</v>
       </c>
       <c r="D547" s="7" t="s">
         <v>40</v>
@@ -26654,10 +26669,10 @@
         <v>547</v>
       </c>
       <c r="B548" s="52" t="s">
-        <v>924</v>
+        <v>915</v>
       </c>
       <c r="C548" s="8" t="s">
-        <v>940</v>
+        <v>931</v>
       </c>
       <c r="D548" s="7" t="s">
         <v>40</v>
@@ -26682,10 +26697,10 @@
         <v>548</v>
       </c>
       <c r="B549" s="52" t="s">
-        <v>941</v>
+        <v>932</v>
       </c>
       <c r="C549" s="8" t="s">
-        <v>942</v>
+        <v>933</v>
       </c>
       <c r="D549" s="7" t="s">
         <v>36</v>
@@ -26710,10 +26725,10 @@
         <v>549</v>
       </c>
       <c r="B550" s="52" t="s">
-        <v>941</v>
+        <v>932</v>
       </c>
       <c r="C550" s="8" t="s">
-        <v>943</v>
+        <v>934</v>
       </c>
       <c r="D550" s="7" t="s">
         <v>36</v>
@@ -26725,7 +26740,7 @@
         <v>1</v>
       </c>
       <c r="H550" s="12" t="s">
-        <v>944</v>
+        <v>935</v>
       </c>
       <c r="M550" s="9" t="str" cm="1">
         <f t="array" ref="M550">PAGE_NAME(B550)</f>
@@ -26741,10 +26756,10 @@
         <v>550</v>
       </c>
       <c r="B551" s="52" t="s">
-        <v>945</v>
+        <v>936</v>
       </c>
       <c r="C551" s="8" t="s">
-        <v>946</v>
+        <v>937</v>
       </c>
       <c r="D551" s="7" t="s">
         <v>32</v>
@@ -26769,10 +26784,10 @@
         <v>551</v>
       </c>
       <c r="B552" s="52" t="s">
-        <v>945</v>
+        <v>936</v>
       </c>
       <c r="C552" s="8" t="s">
-        <v>946</v>
+        <v>937</v>
       </c>
       <c r="D552" s="7" t="s">
         <v>32</v>
@@ -26797,10 +26812,10 @@
         <v>552</v>
       </c>
       <c r="B553" s="52" t="s">
-        <v>945</v>
+        <v>936</v>
       </c>
       <c r="C553" s="8" t="s">
-        <v>947</v>
+        <v>938</v>
       </c>
       <c r="D553" s="7" t="s">
         <v>36</v>
@@ -26825,10 +26840,10 @@
         <v>553</v>
       </c>
       <c r="B554" s="52" t="s">
-        <v>945</v>
+        <v>936</v>
       </c>
       <c r="C554" s="8" t="s">
-        <v>947</v>
+        <v>938</v>
       </c>
       <c r="D554" s="7" t="s">
         <v>36</v>
@@ -26853,10 +26868,10 @@
         <v>554</v>
       </c>
       <c r="B555" s="52" t="s">
-        <v>945</v>
+        <v>936</v>
       </c>
       <c r="C555" s="8" t="s">
-        <v>948</v>
+        <v>939</v>
       </c>
       <c r="D555" s="7" t="s">
         <v>36</v>
@@ -26881,10 +26896,10 @@
         <v>555</v>
       </c>
       <c r="B556" s="52" t="s">
-        <v>945</v>
+        <v>936</v>
       </c>
       <c r="C556" s="8" t="s">
-        <v>948</v>
+        <v>939</v>
       </c>
       <c r="D556" s="7" t="s">
         <v>36</v>
@@ -26909,10 +26924,10 @@
         <v>556</v>
       </c>
       <c r="B557" s="52" t="s">
-        <v>945</v>
+        <v>936</v>
       </c>
       <c r="C557" s="8" t="s">
-        <v>949</v>
+        <v>940</v>
       </c>
       <c r="D557" s="7" t="s">
         <v>36</v>
@@ -26937,10 +26952,10 @@
         <v>557</v>
       </c>
       <c r="B558" s="52" t="s">
-        <v>945</v>
+        <v>936</v>
       </c>
       <c r="C558" s="8" t="s">
-        <v>949</v>
+        <v>940</v>
       </c>
       <c r="D558" s="7" t="s">
         <v>36</v>
@@ -26965,10 +26980,10 @@
         <v>558</v>
       </c>
       <c r="B559" s="52" t="s">
-        <v>945</v>
+        <v>936</v>
       </c>
       <c r="C559" s="8" t="s">
-        <v>950</v>
+        <v>941</v>
       </c>
       <c r="D559" s="7" t="s">
         <v>32</v>
@@ -26993,10 +27008,10 @@
         <v>559</v>
       </c>
       <c r="B560" s="52" t="s">
-        <v>945</v>
+        <v>936</v>
       </c>
       <c r="C560" s="8" t="s">
-        <v>950</v>
+        <v>941</v>
       </c>
       <c r="D560" s="7" t="s">
         <v>32</v>
@@ -27021,10 +27036,10 @@
         <v>560</v>
       </c>
       <c r="B561" s="52" t="s">
-        <v>945</v>
+        <v>936</v>
       </c>
       <c r="C561" s="8" t="s">
-        <v>951</v>
+        <v>942</v>
       </c>
       <c r="D561" s="7" t="s">
         <v>36</v>
@@ -27049,10 +27064,10 @@
         <v>561</v>
       </c>
       <c r="B562" s="52" t="s">
-        <v>945</v>
+        <v>936</v>
       </c>
       <c r="C562" s="8" t="s">
-        <v>951</v>
+        <v>942</v>
       </c>
       <c r="D562" s="7" t="s">
         <v>36</v>
@@ -27077,10 +27092,10 @@
         <v>562</v>
       </c>
       <c r="B563" s="52" t="s">
-        <v>945</v>
+        <v>936</v>
       </c>
       <c r="C563" s="8" t="s">
-        <v>952</v>
+        <v>943</v>
       </c>
       <c r="D563" s="7" t="s">
         <v>32</v>
@@ -27105,10 +27120,10 @@
         <v>563</v>
       </c>
       <c r="B564" s="52" t="s">
-        <v>945</v>
+        <v>936</v>
       </c>
       <c r="C564" s="8" t="s">
-        <v>952</v>
+        <v>943</v>
       </c>
       <c r="D564" s="7" t="s">
         <v>32</v>
@@ -27133,10 +27148,10 @@
         <v>564</v>
       </c>
       <c r="B565" s="52" t="s">
-        <v>945</v>
+        <v>936</v>
       </c>
       <c r="C565" s="8" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
       <c r="D565" s="7" t="s">
         <v>32</v>
@@ -27161,10 +27176,10 @@
         <v>565</v>
       </c>
       <c r="B566" s="52" t="s">
-        <v>945</v>
+        <v>936</v>
       </c>
       <c r="C566" s="8" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
       <c r="D566" s="7" t="s">
         <v>32</v>
@@ -27189,10 +27204,10 @@
         <v>566</v>
       </c>
       <c r="B567" s="52" t="s">
+        <v>936</v>
+      </c>
+      <c r="C567" s="8" t="s">
         <v>945</v>
-      </c>
-      <c r="C567" s="8" t="s">
-        <v>954</v>
       </c>
       <c r="D567" s="7" t="s">
         <v>36</v>
@@ -27217,10 +27232,10 @@
         <v>567</v>
       </c>
       <c r="B568" s="52" t="s">
+        <v>936</v>
+      </c>
+      <c r="C568" s="8" t="s">
         <v>945</v>
-      </c>
-      <c r="C568" s="8" t="s">
-        <v>954</v>
       </c>
       <c r="D568" s="7" t="s">
         <v>36</v>
@@ -27245,10 +27260,10 @@
         <v>568</v>
       </c>
       <c r="B569" s="52" t="s">
-        <v>945</v>
+        <v>936</v>
       </c>
       <c r="C569" s="8" t="s">
-        <v>955</v>
+        <v>946</v>
       </c>
       <c r="D569" s="7" t="s">
         <v>32</v>
@@ -27273,10 +27288,10 @@
         <v>569</v>
       </c>
       <c r="B570" s="52" t="s">
-        <v>945</v>
+        <v>936</v>
       </c>
       <c r="C570" s="8" t="s">
-        <v>955</v>
+        <v>946</v>
       </c>
       <c r="D570" s="7" t="s">
         <v>32</v>
@@ -27301,10 +27316,10 @@
         <v>570</v>
       </c>
       <c r="B571" s="52" t="s">
-        <v>945</v>
+        <v>936</v>
       </c>
       <c r="C571" s="8" t="s">
-        <v>956</v>
+        <v>947</v>
       </c>
       <c r="D571" s="7" t="s">
         <v>32</v>
@@ -27329,10 +27344,10 @@
         <v>571</v>
       </c>
       <c r="B572" s="52" t="s">
-        <v>945</v>
+        <v>936</v>
       </c>
       <c r="C572" s="8" t="s">
-        <v>956</v>
+        <v>947</v>
       </c>
       <c r="D572" s="7" t="s">
         <v>32</v>
@@ -27357,10 +27372,10 @@
         <v>572</v>
       </c>
       <c r="B573" s="52" t="s">
-        <v>945</v>
+        <v>936</v>
       </c>
       <c r="C573" s="8" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="D573" s="7" t="s">
         <v>32</v>
@@ -27385,10 +27400,10 @@
         <v>573</v>
       </c>
       <c r="B574" s="52" t="s">
-        <v>945</v>
+        <v>936</v>
       </c>
       <c r="C574" s="8" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="D574" s="7" t="s">
         <v>32</v>
@@ -27413,10 +27428,10 @@
         <v>574</v>
       </c>
       <c r="B575" s="52" t="s">
-        <v>945</v>
+        <v>936</v>
       </c>
       <c r="C575" s="8" t="s">
-        <v>958</v>
+        <v>949</v>
       </c>
       <c r="D575" s="7" t="s">
         <v>36</v>
@@ -27441,10 +27456,10 @@
         <v>575</v>
       </c>
       <c r="B576" s="52" t="s">
-        <v>945</v>
+        <v>936</v>
       </c>
       <c r="C576" s="8" t="s">
-        <v>958</v>
+        <v>949</v>
       </c>
       <c r="D576" s="7" t="s">
         <v>36</v>
@@ -27469,10 +27484,10 @@
         <v>576</v>
       </c>
       <c r="B577" s="52" t="s">
-        <v>945</v>
+        <v>936</v>
       </c>
       <c r="C577" s="8" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="D577" s="7" t="s">
         <v>36</v>
@@ -27497,10 +27512,10 @@
         <v>577</v>
       </c>
       <c r="B578" s="52" t="s">
-        <v>945</v>
+        <v>936</v>
       </c>
       <c r="C578" s="8" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="D578" s="7" t="s">
         <v>36</v>
@@ -27525,10 +27540,10 @@
         <v>578</v>
       </c>
       <c r="B579" s="52" t="s">
-        <v>945</v>
+        <v>936</v>
       </c>
       <c r="C579" s="8" t="s">
-        <v>960</v>
+        <v>951</v>
       </c>
       <c r="D579" s="7" t="s">
         <v>40</v>
@@ -27553,10 +27568,10 @@
         <v>579</v>
       </c>
       <c r="B580" s="52" t="s">
-        <v>945</v>
+        <v>936</v>
       </c>
       <c r="C580" s="8" t="s">
-        <v>960</v>
+        <v>951</v>
       </c>
       <c r="D580" s="7" t="s">
         <v>40</v>
@@ -27581,10 +27596,10 @@
         <v>580</v>
       </c>
       <c r="B581" s="52" t="s">
-        <v>945</v>
+        <v>936</v>
       </c>
       <c r="C581" s="8" t="s">
-        <v>961</v>
+        <v>952</v>
       </c>
       <c r="D581" s="7" t="s">
         <v>40</v>
@@ -27609,10 +27624,10 @@
         <v>581</v>
       </c>
       <c r="B582" s="52" t="s">
-        <v>945</v>
+        <v>936</v>
       </c>
       <c r="C582" s="8" t="s">
-        <v>961</v>
+        <v>952</v>
       </c>
       <c r="D582" s="7" t="s">
         <v>40</v>
@@ -27637,10 +27652,10 @@
         <v>582</v>
       </c>
       <c r="B583" s="52" t="s">
-        <v>962</v>
+        <v>953</v>
       </c>
       <c r="C583" s="8" t="s">
-        <v>963</v>
+        <v>954</v>
       </c>
       <c r="D583" s="7" t="s">
         <v>32</v>
@@ -27652,7 +27667,7 @@
         <v>1</v>
       </c>
       <c r="H583" s="12" t="s">
-        <v>964</v>
+        <v>955</v>
       </c>
       <c r="M583" s="9" t="str" cm="1">
         <f t="array" ref="M583">PAGE_NAME(B583)</f>
@@ -27668,10 +27683,10 @@
         <v>583</v>
       </c>
       <c r="B584" s="52" t="s">
-        <v>962</v>
+        <v>953</v>
       </c>
       <c r="C584" s="8" t="s">
-        <v>963</v>
+        <v>954</v>
       </c>
       <c r="D584" s="7" t="s">
         <v>32</v>
@@ -27683,7 +27698,7 @@
         <v>1</v>
       </c>
       <c r="H584" s="12" t="s">
-        <v>964</v>
+        <v>955</v>
       </c>
       <c r="M584" s="9" t="str" cm="1">
         <f t="array" ref="M584">PAGE_NAME(B584)</f>
@@ -27699,10 +27714,10 @@
         <v>584</v>
       </c>
       <c r="B585" s="52" t="s">
-        <v>893</v>
+        <v>884</v>
       </c>
       <c r="C585" s="8" t="s">
-        <v>965</v>
+        <v>956</v>
       </c>
       <c r="D585" s="7" t="s">
         <v>32</v>
@@ -27714,7 +27729,7 @@
         <v>1</v>
       </c>
       <c r="H585" s="12" t="s">
-        <v>895</v>
+        <v>886</v>
       </c>
       <c r="M585" s="9" t="str" cm="1">
         <f t="array" ref="M585">PAGE_NAME(B585)</f>
@@ -27769,7 +27784,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C323F474-BE25-4449-9222-E1A46A1843B5}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -27781,7 +27796,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="409.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="59" t="s">
-        <v>966</v>
+        <v>957</v>
       </c>
       <c r="B1" s="60"/>
     </row>
@@ -27791,81 +27806,81 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
-        <v>967</v>
+        <v>958</v>
       </c>
       <c r="B3" t="s">
-        <v>968</v>
+        <v>959</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
-        <v>969</v>
+        <v>960</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
-        <v>970</v>
+        <v>961</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>971</v>
+        <v>962</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
-        <v>972</v>
+        <v>963</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>973</v>
+        <v>964</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>974</v>
+        <v>965</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>975</v>
+        <v>966</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>976</v>
+        <v>967</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>977</v>
+        <v>968</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
-        <v>978</v>
+        <v>969</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>979</v>
+        <v>970</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="153" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
-        <v>980</v>
+        <v>971</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>981</v>
+        <v>972</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
-        <v>982</v>
+        <v>973</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>983</v>
+        <v>974</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
-        <v>984</v>
+        <v>975</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>985</v>
+        <v>976</v>
       </c>
     </row>
   </sheetData>
@@ -27896,19 +27911,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>970</v>
+        <v>961</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>986</v>
+        <v>977</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>987</v>
+        <v>978</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>988</v>
+        <v>979</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>989</v>
+        <v>980</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -27916,13 +27931,13 @@
         <v>0.1</v>
       </c>
       <c r="B2" t="s">
-        <v>990</v>
+        <v>981</v>
       </c>
       <c r="C2" s="42" t="s">
-        <v>991</v>
+        <v>982</v>
       </c>
       <c r="D2" t="s">
-        <v>992</v>
+        <v>983</v>
       </c>
       <c r="E2" s="43">
         <v>45618</v>
@@ -27948,13 +27963,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>993</v>
+        <v>984</v>
       </c>
       <c r="B1" t="s">
         <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>994</v>
+        <v>985</v>
       </c>
       <c r="D1" t="s">
         <v>16</v>
@@ -27968,7 +27983,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>995</v>
+        <v>986</v>
       </c>
       <c r="D2" t="s">
         <v>52</v>
@@ -27982,7 +27997,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>996</v>
+        <v>987</v>
       </c>
       <c r="D3" t="s">
         <v>51</v>
@@ -27993,7 +28008,7 @@
         <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>997</v>
+        <v>988</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -28017,19 +28032,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="b5a44311-ed64-4a72-909f-c9dc6973bde2" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="eebd8b74-b9de-41b2-9247-c010c4973c2b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <Description xmlns="eebd8b74-b9de-41b2-9247-c010c4973c2b" xsi:nil="true"/>
-    <SortOrder xmlns="eebd8b74-b9de-41b2-9247-c010c4973c2b" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EC335ED7BB179244BF94A0DFE64544DC" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d3a0f66abe5d2a0564332877ab55d3f7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="eebd8b74-b9de-41b2-9247-c010c4973c2b" xmlns:ns3="b7009bbd-f938-489b-a530-f05273710fff" xmlns:ns4="b5a44311-ed64-4a72-909f-c9dc6973bde2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ec7ca2ee893ff8a0f61d4046c6461645" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="eebd8b74-b9de-41b2-9247-c010c4973c2b"/>
@@ -28283,7 +28285,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -28292,25 +28294,20 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19B0E317-5E0E-4728-AB3F-40F2C2B957FB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="b5a44311-ed64-4a72-909f-c9dc6973bde2"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="b7009bbd-f938-489b-a530-f05273710fff"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="eebd8b74-b9de-41b2-9247-c010c4973c2b"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="b5a44311-ed64-4a72-909f-c9dc6973bde2" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="eebd8b74-b9de-41b2-9247-c010c4973c2b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <Description xmlns="eebd8b74-b9de-41b2-9247-c010c4973c2b" xsi:nil="true"/>
+    <SortOrder xmlns="eebd8b74-b9de-41b2-9247-c010c4973c2b" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C0B0A19-6928-4F0B-831A-5B9FDDD3F6CE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -28330,10 +28327,28 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA84097F-5807-4DCF-92C6-48C9EE26CFB8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19B0E317-5E0E-4728-AB3F-40F2C2B957FB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="b5a44311-ed64-4a72-909f-c9dc6973bde2"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="b7009bbd-f938-489b-a530-f05273710fff"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="eebd8b74-b9de-41b2-9247-c010c4973c2b"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/lib/us_core_test_kit/requirements/hl7.fhir.us.core_7.0.0_reqs.xlsx
+++ b/lib/us_core_test_kit/requirements/hl7.fhir.us.core_7.0.0_reqs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edeyoung/Documents/inferno/us-core-test-kit/lib/us_core_test_kit/requirements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E6224EF-45DD-6F4F-B14F-11C32984D1D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D9BB860-20D6-CB43-8A7E-B22E9B8B6CB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{D251129A-65BB-5042-909C-749E11B8C0B0}"/>
+    <workbookView xWindow="-37120" yWindow="-1000" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{D251129A-65BB-5042-909C-749E11B8C0B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="9" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2859" uniqueCount="1004">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2879" uniqueCount="1010">
   <si>
     <r>
       <rPr>
@@ -4600,6 +4600,24 @@
   <si>
     <t>Duplicate to req 1</t>
   </si>
+  <si>
+    <t>StructureDefinition-us-core-allergyintolerance</t>
+  </si>
+  <si>
+    <t>mandatory-and-must-support-data-elements</t>
+  </si>
+  <si>
+    <t>Each AllergyIntolerance Must Have: a clinical status of the allergy (e.g., active or resolved)</t>
+  </si>
+  <si>
+    <t>Each AllergyIntolerance Must Have: a code that tells you what the patient is allergic to</t>
+  </si>
+  <si>
+    <t>Each AllergyIntolerance Must Support: a verification status</t>
+  </si>
+  <si>
+    <t>Each AllergyIntolerance Must Support: a reaction manifestation</t>
+  </si>
 </sst>
 </file>
 
@@ -4751,7 +4769,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4818,8 +4836,26 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE4D6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDEBF7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -5019,12 +5055,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFD0CECE"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD0CECE"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD0CECE"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5164,6 +5213,22 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5596,13 +5661,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0272D98A-080C-3945-A7E0-CB54FB3A65A9}">
-  <dimension ref="A1:V585"/>
+  <dimension ref="A1:V597"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="U270" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="I83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D273" sqref="D273"/>
+      <selection pane="bottomRight" activeCell="J584" sqref="J584"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -27479,7 +27544,7 @@
         <v>patient-privacy-and-security</v>
       </c>
     </row>
-    <row r="577" spans="1:16" ht="85" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:22" ht="85" x14ac:dyDescent="0.2">
       <c r="A577" s="7">
         <v>576</v>
       </c>
@@ -27507,7 +27572,7 @@
         <v>patient-privacy-and-security</v>
       </c>
     </row>
-    <row r="578" spans="1:16" ht="85" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:22" ht="85" x14ac:dyDescent="0.2">
       <c r="A578" s="7">
         <v>577</v>
       </c>
@@ -27535,7 +27600,7 @@
         <v>patient-privacy-and-security</v>
       </c>
     </row>
-    <row r="579" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:22" ht="51" x14ac:dyDescent="0.2">
       <c r="A579" s="7">
         <v>578</v>
       </c>
@@ -27563,7 +27628,7 @@
         <v>patient-privacy-and-security</v>
       </c>
     </row>
-    <row r="580" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:22" ht="51" x14ac:dyDescent="0.2">
       <c r="A580" s="7">
         <v>579</v>
       </c>
@@ -27591,7 +27656,7 @@
         <v>patient-privacy-and-security</v>
       </c>
     </row>
-    <row r="581" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:22" ht="34" x14ac:dyDescent="0.2">
       <c r="A581" s="7">
         <v>580</v>
       </c>
@@ -27619,7 +27684,7 @@
         <v>patient-privacy-and-security</v>
       </c>
     </row>
-    <row r="582" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:22" ht="34" x14ac:dyDescent="0.2">
       <c r="A582" s="7">
         <v>581</v>
       </c>
@@ -27647,7 +27712,7 @@
         <v>patient-privacy-and-security</v>
       </c>
     </row>
-    <row r="583" spans="1:16" ht="68" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:22" ht="68" x14ac:dyDescent="0.2">
       <c r="A583" s="7">
         <v>582</v>
       </c>
@@ -27678,7 +27743,7 @@
         <v>current-binding-for-coded-elements</v>
       </c>
     </row>
-    <row r="584" spans="1:16" ht="68" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:22" ht="68" x14ac:dyDescent="0.2">
       <c r="A584" s="7">
         <v>583</v>
       </c>
@@ -27709,7 +27774,7 @@
         <v>current-binding-for-coded-elements</v>
       </c>
     </row>
-    <row r="585" spans="1:16" ht="68" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:22" ht="68" x14ac:dyDescent="0.2">
       <c r="A585" s="7">
         <v>584</v>
       </c>
@@ -27740,16 +27805,189 @@
         <v>mandatory-and-must-support-data-elements</v>
       </c>
       <c r="O585" s="10" t="str">
-        <f t="shared" ref="O585" si="25">IF(ISNUMBER(SEARCH("MAY", C585)), "MAY", IF(ISNUMBER(SEARCH("SHOULD", C585)), "SHOULD", IF(ISNUMBER(SEARCH("SHALL", C585)), "SHALL", IF(ISNUMBER(SEARCH("SHOULD NOT", C585)), "SHOULD NOT", IF(ISNUMBER(SEARCH("SHALL NOT", C585)), "SHALL NOT", "")))))</f>
+        <f t="shared" ref="O585:O587" si="25">IF(ISNUMBER(SEARCH("MAY", C585)), "MAY", IF(ISNUMBER(SEARCH("SHOULD", C585)), "SHOULD", IF(ISNUMBER(SEARCH("SHALL", C585)), "SHALL", IF(ISNUMBER(SEARCH("SHOULD NOT", C585)), "SHOULD NOT", IF(ISNUMBER(SEARCH("SHALL NOT", C585)), "SHALL NOT", "")))))</f>
         <v/>
       </c>
       <c r="P585" s="10" t="str">
-        <f t="shared" ref="P585" si="26">IF(ISNUMBER(SEARCH("server", C585)), "Server", IF(ISNUMBER(SEARCH("Server", C585)), "Server", IF(ISNUMBER(SEARCH("client", C585)), "Client", IF(ISNUMBER(SEARCH("Client", C585)), "Client", IF(ISNUMBER(SEARCH("US Core Responder", C585)), "Server", IF(ISNUMBER(SEARCH("US Core Requestor", C585)), "Client", ""))))))</f>
-        <v/>
-      </c>
+        <f t="shared" ref="P585:P587" si="26">IF(ISNUMBER(SEARCH("server", C585)), "Server", IF(ISNUMBER(SEARCH("Server", C585)), "Server", IF(ISNUMBER(SEARCH("client", C585)), "Client", IF(ISNUMBER(SEARCH("Client", C585)), "Client", IF(ISNUMBER(SEARCH("US Core Responder", C585)), "Server", IF(ISNUMBER(SEARCH("US Core Requestor", C585)), "Client", ""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="586" spans="1:22" ht="34" x14ac:dyDescent="0.2">
+      <c r="A586" s="7">
+        <v>585</v>
+      </c>
+      <c r="B586" s="52" t="s">
+        <v>565</v>
+      </c>
+      <c r="C586" s="8" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D586" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E586" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G586" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M586" s="9" t="str" cm="1">
+        <f t="array" ref="M586">PAGE_NAME(B586)</f>
+        <v>StructureDefinition-us-core-allergyintolerance</v>
+      </c>
+      <c r="N586" s="9" t="str" cm="1">
+        <f t="array" ref="N586">SECTION_NAME(B586)</f>
+        <v>mandatory-and-must-support-data-elements</v>
+      </c>
+      <c r="O586" s="10" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="P586" s="10" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+    </row>
+    <row r="587" spans="1:22" ht="34" x14ac:dyDescent="0.2">
+      <c r="A587" s="7">
+        <v>586</v>
+      </c>
+      <c r="B587" s="52" t="s">
+        <v>565</v>
+      </c>
+      <c r="C587" s="8" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D587" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E587" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G587" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M587" s="9" t="str" cm="1">
+        <f t="array" ref="M587">PAGE_NAME(B587)</f>
+        <v>StructureDefinition-us-core-allergyintolerance</v>
+      </c>
+      <c r="N587" s="9" t="str" cm="1">
+        <f t="array" ref="N587">SECTION_NAME(B587)</f>
+        <v>mandatory-and-must-support-data-elements</v>
+      </c>
+      <c r="O587" s="10" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="P587" s="10" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+    </row>
+    <row r="588" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="A588" s="7">
+        <v>587</v>
+      </c>
+      <c r="B588" s="61" t="s">
+        <v>565</v>
+      </c>
+      <c r="C588" s="62" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D588" s="63" t="s">
+        <v>32</v>
+      </c>
+      <c r="E588" s="63" t="s">
+        <v>33</v>
+      </c>
+      <c r="F588" s="64"/>
+      <c r="G588" s="63" t="b">
+        <v>0</v>
+      </c>
+      <c r="H588" s="65"/>
+      <c r="I588" s="66"/>
+      <c r="J588" s="66"/>
+      <c r="K588" s="66"/>
+      <c r="L588" s="66"/>
+      <c r="M588" s="67" t="s">
+        <v>1004</v>
+      </c>
+      <c r="N588" s="67" t="s">
+        <v>1005</v>
+      </c>
+      <c r="O588" s="68"/>
+      <c r="P588" s="68"/>
+      <c r="Q588" s="68"/>
+      <c r="R588" s="68"/>
+      <c r="S588" s="65"/>
+      <c r="T588" s="68"/>
+      <c r="U588" s="65"/>
+      <c r="V588" s="65"/>
+    </row>
+    <row r="589" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="A589" s="7">
+        <v>588</v>
+      </c>
+      <c r="B589" s="61" t="s">
+        <v>565</v>
+      </c>
+      <c r="C589" s="62" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D589" s="63" t="s">
+        <v>32</v>
+      </c>
+      <c r="E589" s="63" t="s">
+        <v>33</v>
+      </c>
+      <c r="F589" s="64"/>
+      <c r="G589" s="63" t="b">
+        <v>0</v>
+      </c>
+      <c r="H589" s="65"/>
+      <c r="I589" s="66"/>
+      <c r="J589" s="66"/>
+      <c r="K589" s="66"/>
+      <c r="L589" s="66"/>
+      <c r="M589" s="67" t="s">
+        <v>1004</v>
+      </c>
+      <c r="N589" s="67" t="s">
+        <v>1005</v>
+      </c>
+      <c r="O589" s="68"/>
+      <c r="P589" s="68"/>
+      <c r="Q589" s="68"/>
+      <c r="R589" s="68"/>
+      <c r="S589" s="65"/>
+      <c r="T589" s="68"/>
+      <c r="U589" s="65"/>
+      <c r="V589" s="65"/>
+    </row>
+    <row r="594" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B594" s="52"/>
+    </row>
+    <row r="595" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B595" s="52"/>
+    </row>
+    <row r="596" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B596" s="61"/>
+      <c r="C596" s="62"/>
+      <c r="D596" s="63"/>
+      <c r="E596" s="63"/>
+      <c r="F596" s="64"/>
+      <c r="G596" s="63"/>
+    </row>
+    <row r="597" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B597" s="61"/>
+      <c r="C597" s="62"/>
+      <c r="D597" s="63"/>
+      <c r="E597" s="63"/>
+      <c r="F597" s="64"/>
+      <c r="G597" s="63"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V585" xr:uid="{0272D98A-080C-3945-A7E0-CB54FB3A65A9}"/>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -27760,19 +27998,19 @@
           <x14:formula1>
             <xm:f>'Column Data'!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>G252:G1048576 G1:G250</xm:sqref>
+          <xm:sqref>G1:G250 G252:G587 G590:G595 G598:G1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F4FB27A2-804E-CB49-B85C-BBEE0C688B4F}">
           <x14:formula1>
             <xm:f>'Column Data'!$D$2:$D$4</xm:f>
           </x14:formula1>
-          <xm:sqref>I2:I1048576 K524:K1048576 K418:K459 K467:K469 K471 K473:K482 K490:K516 K2:K11 K14:K84 K86:K391 K393:K405 K408:K411</xm:sqref>
+          <xm:sqref>K408:K411 K418:K459 K467:K469 K471 K473:K482 K490:K516 K2:K11 K14:K84 K86:K391 K393:K405 I590:I1048576 K524:K587 I2:I587 K590:K1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4866B9BF-5615-6646-965F-909D4D65F2A5}">
           <x14:formula1>
             <xm:f>'Column Data'!$A$2:$A$7</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D1048576</xm:sqref>
+          <xm:sqref>D2:D587 D590:D595 D598:D1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -28032,6 +28270,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EC335ED7BB179244BF94A0DFE64544DC" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d3a0f66abe5d2a0564332877ab55d3f7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="eebd8b74-b9de-41b2-9247-c010c4973c2b" xmlns:ns3="b7009bbd-f938-489b-a530-f05273710fff" xmlns:ns4="b5a44311-ed64-4a72-909f-c9dc6973bde2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ec7ca2ee893ff8a0f61d4046c6461645" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="eebd8b74-b9de-41b2-9247-c010c4973c2b"/>
@@ -28285,15 +28532,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -28308,6 +28546,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA84097F-5807-4DCF-92C6-48C9EE26CFB8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C0B0A19-6928-4F0B-831A-5B9FDDD3F6CE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -28323,14 +28569,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA84097F-5807-4DCF-92C6-48C9EE26CFB8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/lib/us_core_test_kit/requirements/hl7.fhir.us.core_7.0.0_reqs.xlsx
+++ b/lib/us_core_test_kit/requirements/hl7.fhir.us.core_7.0.0_reqs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edeyoung/Documents/inferno/us-core-test-kit/lib/us_core_test_kit/requirements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D9BB860-20D6-CB43-8A7E-B22E9B8B6CB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F137318-AF31-FB40-A8B0-A213AC00221F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37120" yWindow="-1000" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{D251129A-65BB-5042-909C-749E11B8C0B0}"/>
+    <workbookView xWindow="31680" yWindow="6040" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{D251129A-65BB-5042-909C-749E11B8C0B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="9" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Column Data" sheetId="7" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Requirements!$A$1:$V$585</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Requirements!$A$1:$V$597</definedName>
     <definedName name="EXPLODE" localSheetId="0">_xlfn.LAMBDA(_xlpm.string,_xlfn.MAKEARRAY(1,LEN(_xlpm.string),_xlfn.LAMBDA(_xlpm.r,_xlpm.c,MID(_xlpm.string,_xlpm.c,1))))</definedName>
     <definedName name="EXPLODE">_xlfn.LAMBDA(_xlpm.string,_xlfn.MAKEARRAY(1,LEN(_xlpm.string),_xlfn.LAMBDA(_xlpm.r,_xlpm.c,MID(_xlpm.string,_xlpm.c,1))))</definedName>
     <definedName name="FIND_DUPLICATES" localSheetId="0">_xlfn.LAMBDA(_xlpm.test_word,_xlpm.test_key,_xlpm.words,_xlpm.keys,_xlpm.threshold, _xlfn.LET(_xlpm.duplist,_xlfn._xlws.FILTER(_xlpm.keys,_xlfn.BYROW(_xlpm.words, _xlfn.LAMBDA(_xlpm.word, Info!HAMDIST(INDEX(_xlpm.word,1,1), _xlpm.test_word)&lt;_xlpm.threshold))),_xlfn.SINGLE(_xlfn._xlws.FILTER(_xlpm.duplist,_xlpm.duplist&lt;&gt;_xlpm.test_key,""))))</definedName>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2879" uniqueCount="1010">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2882" uniqueCount="1011">
   <si>
     <r>
       <rPr>
@@ -4618,6 +4618,9 @@
   <si>
     <t>Each AllergyIntolerance Must Support: a reaction manifestation</t>
   </si>
+  <si>
+    <t>Deprecated because this is in the structured definition and unnecessary as a separate requirement.</t>
+  </si>
 </sst>
 </file>
 
@@ -4855,7 +4858,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -5068,12 +5071,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD0CECE"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFD0CECE"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD0CECE"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5229,6 +5245,9 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5664,10 +5683,10 @@
   <dimension ref="A1:V597"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="I83" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="U578" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J584" sqref="J584"/>
+      <selection pane="bottomRight" activeCell="U591" sqref="U591"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17697,7 +17716,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="305" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:22" ht="51" x14ac:dyDescent="0.2">
       <c r="A305" s="7">
         <v>304</v>
       </c>
@@ -17708,7 +17727,7 @@
         <v>568</v>
       </c>
       <c r="D305" s="7" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="E305" s="7" t="s">
         <v>33</v>
@@ -17732,6 +17751,9 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
+      <c r="V305" s="69" t="s">
+        <v>1010</v>
+      </c>
     </row>
     <row r="306" spans="1:22" ht="102" x14ac:dyDescent="0.2">
       <c r="A306" s="7">
@@ -27813,7 +27835,7 @@
         <v/>
       </c>
     </row>
-    <row r="586" spans="1:22" ht="34" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:22" ht="51" x14ac:dyDescent="0.2">
       <c r="A586" s="7">
         <v>585</v>
       </c>
@@ -27824,7 +27846,7 @@
         <v>1006</v>
       </c>
       <c r="D586" s="7" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="E586" s="7" t="s">
         <v>33</v>
@@ -27848,8 +27870,11 @@
         <f t="shared" si="26"/>
         <v/>
       </c>
-    </row>
-    <row r="587" spans="1:22" ht="34" x14ac:dyDescent="0.2">
+      <c r="V586" s="69" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="587" spans="1:22" ht="51" x14ac:dyDescent="0.2">
       <c r="A587" s="7">
         <v>586</v>
       </c>
@@ -27860,7 +27885,7 @@
         <v>1007</v>
       </c>
       <c r="D587" s="7" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="E587" s="7" t="s">
         <v>33</v>
@@ -27883,6 +27908,9 @@
       <c r="P587" s="10" t="str">
         <f t="shared" si="26"/>
         <v/>
+      </c>
+      <c r="V587" s="69" t="s">
+        <v>1010</v>
       </c>
     </row>
     <row r="588" spans="1:22" ht="17" x14ac:dyDescent="0.2">
@@ -27988,6 +28016,7 @@
       <c r="G597" s="63"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:V597" xr:uid="{0272D98A-080C-3945-A7E0-CB54FB3A65A9}"/>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/lib/us_core_test_kit/requirements/hl7.fhir.us.core_7.0.0_reqs.xlsx
+++ b/lib/us_core_test_kit/requirements/hl7.fhir.us.core_7.0.0_reqs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edeyoung/Documents/inferno/us-core-test-kit/lib/us_core_test_kit/requirements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E6224EF-45DD-6F4F-B14F-11C32984D1D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F137318-AF31-FB40-A8B0-A213AC00221F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{D251129A-65BB-5042-909C-749E11B8C0B0}"/>
+    <workbookView xWindow="31680" yWindow="6040" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{D251129A-65BB-5042-909C-749E11B8C0B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="9" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Column Data" sheetId="7" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Requirements!$A$1:$V$585</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Requirements!$A$1:$V$597</definedName>
     <definedName name="EXPLODE" localSheetId="0">_xlfn.LAMBDA(_xlpm.string,_xlfn.MAKEARRAY(1,LEN(_xlpm.string),_xlfn.LAMBDA(_xlpm.r,_xlpm.c,MID(_xlpm.string,_xlpm.c,1))))</definedName>
     <definedName name="EXPLODE">_xlfn.LAMBDA(_xlpm.string,_xlfn.MAKEARRAY(1,LEN(_xlpm.string),_xlfn.LAMBDA(_xlpm.r,_xlpm.c,MID(_xlpm.string,_xlpm.c,1))))</definedName>
     <definedName name="FIND_DUPLICATES" localSheetId="0">_xlfn.LAMBDA(_xlpm.test_word,_xlpm.test_key,_xlpm.words,_xlpm.keys,_xlpm.threshold, _xlfn.LET(_xlpm.duplist,_xlfn._xlws.FILTER(_xlpm.keys,_xlfn.BYROW(_xlpm.words, _xlfn.LAMBDA(_xlpm.word, Info!HAMDIST(INDEX(_xlpm.word,1,1), _xlpm.test_word)&lt;_xlpm.threshold))),_xlfn.SINGLE(_xlfn._xlws.FILTER(_xlpm.duplist,_xlpm.duplist&lt;&gt;_xlpm.test_key,""))))</definedName>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2859" uniqueCount="1004">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2882" uniqueCount="1011">
   <si>
     <r>
       <rPr>
@@ -4600,6 +4600,27 @@
   <si>
     <t>Duplicate to req 1</t>
   </si>
+  <si>
+    <t>StructureDefinition-us-core-allergyintolerance</t>
+  </si>
+  <si>
+    <t>mandatory-and-must-support-data-elements</t>
+  </si>
+  <si>
+    <t>Each AllergyIntolerance Must Have: a clinical status of the allergy (e.g., active or resolved)</t>
+  </si>
+  <si>
+    <t>Each AllergyIntolerance Must Have: a code that tells you what the patient is allergic to</t>
+  </si>
+  <si>
+    <t>Each AllergyIntolerance Must Support: a verification status</t>
+  </si>
+  <si>
+    <t>Each AllergyIntolerance Must Support: a reaction manifestation</t>
+  </si>
+  <si>
+    <t>Deprecated because this is in the structured definition and unnecessary as a separate requirement.</t>
+  </si>
 </sst>
 </file>
 
@@ -4751,7 +4772,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4818,8 +4839,26 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE4D6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDEBF7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -5019,12 +5058,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFD0CECE"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD0CECE"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD0CECE"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD0CECE"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFD0CECE"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD0CECE"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5163,6 +5228,25 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5596,13 +5680,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0272D98A-080C-3945-A7E0-CB54FB3A65A9}">
-  <dimension ref="A1:V585"/>
+  <dimension ref="A1:V597"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="U270" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="U578" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D273" sqref="D273"/>
+      <selection pane="bottomRight" activeCell="U591" sqref="U591"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17632,7 +17716,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="305" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:22" ht="51" x14ac:dyDescent="0.2">
       <c r="A305" s="7">
         <v>304</v>
       </c>
@@ -17643,7 +17727,7 @@
         <v>568</v>
       </c>
       <c r="D305" s="7" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="E305" s="7" t="s">
         <v>33</v>
@@ -17667,6 +17751,9 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
+      <c r="V305" s="69" t="s">
+        <v>1010</v>
+      </c>
     </row>
     <row r="306" spans="1:22" ht="102" x14ac:dyDescent="0.2">
       <c r="A306" s="7">
@@ -27479,7 +27566,7 @@
         <v>patient-privacy-and-security</v>
       </c>
     </row>
-    <row r="577" spans="1:16" ht="85" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:22" ht="85" x14ac:dyDescent="0.2">
       <c r="A577" s="7">
         <v>576</v>
       </c>
@@ -27507,7 +27594,7 @@
         <v>patient-privacy-and-security</v>
       </c>
     </row>
-    <row r="578" spans="1:16" ht="85" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:22" ht="85" x14ac:dyDescent="0.2">
       <c r="A578" s="7">
         <v>577</v>
       </c>
@@ -27535,7 +27622,7 @@
         <v>patient-privacy-and-security</v>
       </c>
     </row>
-    <row r="579" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:22" ht="51" x14ac:dyDescent="0.2">
       <c r="A579" s="7">
         <v>578</v>
       </c>
@@ -27563,7 +27650,7 @@
         <v>patient-privacy-and-security</v>
       </c>
     </row>
-    <row r="580" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:22" ht="51" x14ac:dyDescent="0.2">
       <c r="A580" s="7">
         <v>579</v>
       </c>
@@ -27591,7 +27678,7 @@
         <v>patient-privacy-and-security</v>
       </c>
     </row>
-    <row r="581" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:22" ht="34" x14ac:dyDescent="0.2">
       <c r="A581" s="7">
         <v>580</v>
       </c>
@@ -27619,7 +27706,7 @@
         <v>patient-privacy-and-security</v>
       </c>
     </row>
-    <row r="582" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:22" ht="34" x14ac:dyDescent="0.2">
       <c r="A582" s="7">
         <v>581</v>
       </c>
@@ -27647,7 +27734,7 @@
         <v>patient-privacy-and-security</v>
       </c>
     </row>
-    <row r="583" spans="1:16" ht="68" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:22" ht="68" x14ac:dyDescent="0.2">
       <c r="A583" s="7">
         <v>582</v>
       </c>
@@ -27678,7 +27765,7 @@
         <v>current-binding-for-coded-elements</v>
       </c>
     </row>
-    <row r="584" spans="1:16" ht="68" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:22" ht="68" x14ac:dyDescent="0.2">
       <c r="A584" s="7">
         <v>583</v>
       </c>
@@ -27709,7 +27796,7 @@
         <v>current-binding-for-coded-elements</v>
       </c>
     </row>
-    <row r="585" spans="1:16" ht="68" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:22" ht="68" x14ac:dyDescent="0.2">
       <c r="A585" s="7">
         <v>584</v>
       </c>
@@ -27740,16 +27827,196 @@
         <v>mandatory-and-must-support-data-elements</v>
       </c>
       <c r="O585" s="10" t="str">
-        <f t="shared" ref="O585" si="25">IF(ISNUMBER(SEARCH("MAY", C585)), "MAY", IF(ISNUMBER(SEARCH("SHOULD", C585)), "SHOULD", IF(ISNUMBER(SEARCH("SHALL", C585)), "SHALL", IF(ISNUMBER(SEARCH("SHOULD NOT", C585)), "SHOULD NOT", IF(ISNUMBER(SEARCH("SHALL NOT", C585)), "SHALL NOT", "")))))</f>
+        <f t="shared" ref="O585:O587" si="25">IF(ISNUMBER(SEARCH("MAY", C585)), "MAY", IF(ISNUMBER(SEARCH("SHOULD", C585)), "SHOULD", IF(ISNUMBER(SEARCH("SHALL", C585)), "SHALL", IF(ISNUMBER(SEARCH("SHOULD NOT", C585)), "SHOULD NOT", IF(ISNUMBER(SEARCH("SHALL NOT", C585)), "SHALL NOT", "")))))</f>
         <v/>
       </c>
       <c r="P585" s="10" t="str">
-        <f t="shared" ref="P585" si="26">IF(ISNUMBER(SEARCH("server", C585)), "Server", IF(ISNUMBER(SEARCH("Server", C585)), "Server", IF(ISNUMBER(SEARCH("client", C585)), "Client", IF(ISNUMBER(SEARCH("Client", C585)), "Client", IF(ISNUMBER(SEARCH("US Core Responder", C585)), "Server", IF(ISNUMBER(SEARCH("US Core Requestor", C585)), "Client", ""))))))</f>
-        <v/>
-      </c>
+        <f t="shared" ref="P585:P587" si="26">IF(ISNUMBER(SEARCH("server", C585)), "Server", IF(ISNUMBER(SEARCH("Server", C585)), "Server", IF(ISNUMBER(SEARCH("client", C585)), "Client", IF(ISNUMBER(SEARCH("Client", C585)), "Client", IF(ISNUMBER(SEARCH("US Core Responder", C585)), "Server", IF(ISNUMBER(SEARCH("US Core Requestor", C585)), "Client", ""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="586" spans="1:22" ht="51" x14ac:dyDescent="0.2">
+      <c r="A586" s="7">
+        <v>585</v>
+      </c>
+      <c r="B586" s="52" t="s">
+        <v>565</v>
+      </c>
+      <c r="C586" s="8" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D586" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E586" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G586" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M586" s="9" t="str" cm="1">
+        <f t="array" ref="M586">PAGE_NAME(B586)</f>
+        <v>StructureDefinition-us-core-allergyintolerance</v>
+      </c>
+      <c r="N586" s="9" t="str" cm="1">
+        <f t="array" ref="N586">SECTION_NAME(B586)</f>
+        <v>mandatory-and-must-support-data-elements</v>
+      </c>
+      <c r="O586" s="10" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="P586" s="10" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="V586" s="69" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="587" spans="1:22" ht="51" x14ac:dyDescent="0.2">
+      <c r="A587" s="7">
+        <v>586</v>
+      </c>
+      <c r="B587" s="52" t="s">
+        <v>565</v>
+      </c>
+      <c r="C587" s="8" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D587" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E587" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G587" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M587" s="9" t="str" cm="1">
+        <f t="array" ref="M587">PAGE_NAME(B587)</f>
+        <v>StructureDefinition-us-core-allergyintolerance</v>
+      </c>
+      <c r="N587" s="9" t="str" cm="1">
+        <f t="array" ref="N587">SECTION_NAME(B587)</f>
+        <v>mandatory-and-must-support-data-elements</v>
+      </c>
+      <c r="O587" s="10" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="P587" s="10" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="V587" s="69" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="588" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="A588" s="7">
+        <v>587</v>
+      </c>
+      <c r="B588" s="61" t="s">
+        <v>565</v>
+      </c>
+      <c r="C588" s="62" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D588" s="63" t="s">
+        <v>32</v>
+      </c>
+      <c r="E588" s="63" t="s">
+        <v>33</v>
+      </c>
+      <c r="F588" s="64"/>
+      <c r="G588" s="63" t="b">
+        <v>0</v>
+      </c>
+      <c r="H588" s="65"/>
+      <c r="I588" s="66"/>
+      <c r="J588" s="66"/>
+      <c r="K588" s="66"/>
+      <c r="L588" s="66"/>
+      <c r="M588" s="67" t="s">
+        <v>1004</v>
+      </c>
+      <c r="N588" s="67" t="s">
+        <v>1005</v>
+      </c>
+      <c r="O588" s="68"/>
+      <c r="P588" s="68"/>
+      <c r="Q588" s="68"/>
+      <c r="R588" s="68"/>
+      <c r="S588" s="65"/>
+      <c r="T588" s="68"/>
+      <c r="U588" s="65"/>
+      <c r="V588" s="65"/>
+    </row>
+    <row r="589" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="A589" s="7">
+        <v>588</v>
+      </c>
+      <c r="B589" s="61" t="s">
+        <v>565</v>
+      </c>
+      <c r="C589" s="62" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D589" s="63" t="s">
+        <v>32</v>
+      </c>
+      <c r="E589" s="63" t="s">
+        <v>33</v>
+      </c>
+      <c r="F589" s="64"/>
+      <c r="G589" s="63" t="b">
+        <v>0</v>
+      </c>
+      <c r="H589" s="65"/>
+      <c r="I589" s="66"/>
+      <c r="J589" s="66"/>
+      <c r="K589" s="66"/>
+      <c r="L589" s="66"/>
+      <c r="M589" s="67" t="s">
+        <v>1004</v>
+      </c>
+      <c r="N589" s="67" t="s">
+        <v>1005</v>
+      </c>
+      <c r="O589" s="68"/>
+      <c r="P589" s="68"/>
+      <c r="Q589" s="68"/>
+      <c r="R589" s="68"/>
+      <c r="S589" s="65"/>
+      <c r="T589" s="68"/>
+      <c r="U589" s="65"/>
+      <c r="V589" s="65"/>
+    </row>
+    <row r="594" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B594" s="52"/>
+    </row>
+    <row r="595" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B595" s="52"/>
+    </row>
+    <row r="596" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B596" s="61"/>
+      <c r="C596" s="62"/>
+      <c r="D596" s="63"/>
+      <c r="E596" s="63"/>
+      <c r="F596" s="64"/>
+      <c r="G596" s="63"/>
+    </row>
+    <row r="597" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B597" s="61"/>
+      <c r="C597" s="62"/>
+      <c r="D597" s="63"/>
+      <c r="E597" s="63"/>
+      <c r="F597" s="64"/>
+      <c r="G597" s="63"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V585" xr:uid="{0272D98A-080C-3945-A7E0-CB54FB3A65A9}"/>
+  <autoFilter ref="A1:V597" xr:uid="{0272D98A-080C-3945-A7E0-CB54FB3A65A9}"/>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -27760,19 +28027,19 @@
           <x14:formula1>
             <xm:f>'Column Data'!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>G252:G1048576 G1:G250</xm:sqref>
+          <xm:sqref>G1:G250 G252:G587 G590:G595 G598:G1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F4FB27A2-804E-CB49-B85C-BBEE0C688B4F}">
           <x14:formula1>
             <xm:f>'Column Data'!$D$2:$D$4</xm:f>
           </x14:formula1>
-          <xm:sqref>I2:I1048576 K524:K1048576 K418:K459 K467:K469 K471 K473:K482 K490:K516 K2:K11 K14:K84 K86:K391 K393:K405 K408:K411</xm:sqref>
+          <xm:sqref>K408:K411 K418:K459 K467:K469 K471 K473:K482 K490:K516 K2:K11 K14:K84 K86:K391 K393:K405 I590:I1048576 K524:K587 I2:I587 K590:K1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4866B9BF-5615-6646-965F-909D4D65F2A5}">
           <x14:formula1>
             <xm:f>'Column Data'!$A$2:$A$7</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D1048576</xm:sqref>
+          <xm:sqref>D2:D587 D590:D595 D598:D1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -28032,6 +28299,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EC335ED7BB179244BF94A0DFE64544DC" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d3a0f66abe5d2a0564332877ab55d3f7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="eebd8b74-b9de-41b2-9247-c010c4973c2b" xmlns:ns3="b7009bbd-f938-489b-a530-f05273710fff" xmlns:ns4="b5a44311-ed64-4a72-909f-c9dc6973bde2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ec7ca2ee893ff8a0f61d4046c6461645" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="eebd8b74-b9de-41b2-9247-c010c4973c2b"/>
@@ -28285,15 +28561,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -28308,6 +28575,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA84097F-5807-4DCF-92C6-48C9EE26CFB8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C0B0A19-6928-4F0B-831A-5B9FDDD3F6CE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -28323,14 +28598,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA84097F-5807-4DCF-92C6-48C9EE26CFB8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
